--- a/data/poop.xlsx
+++ b/data/poop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\perso\code\mydogtracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883EE6B3-7E3A-459F-A1ED-FE3AA09617E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23725C6D-919E-4F55-B7FF-BFA1A638B6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30495" yWindow="2400" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="poop" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -67,7 +67,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="169" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -549,7 +549,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F250"/>
+  <dimension ref="A1:F269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="B251" sqref="B251"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="F271" sqref="F271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5185,7 +5185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>45399</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>45399</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>45399</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>45399</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>45399</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>45399</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>45399</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>45399</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>45399</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>45399</v>
       </c>
@@ -5353,6 +5353,347 @@
       </c>
       <c r="E250" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B251" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" t="s">
+        <v>9</v>
+      </c>
+      <c r="E251" t="s">
+        <v>10</v>
+      </c>
+      <c r="F251" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B252" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C252" t="s">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s">
+        <v>9</v>
+      </c>
+      <c r="E252" t="s">
+        <v>10</v>
+      </c>
+      <c r="F252" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B253" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" t="s">
+        <v>9</v>
+      </c>
+      <c r="E253" t="s">
+        <v>10</v>
+      </c>
+      <c r="F253" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B254" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C254" t="s">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s">
+        <v>9</v>
+      </c>
+      <c r="E254" t="s">
+        <v>10</v>
+      </c>
+      <c r="F254" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B255" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" t="s">
+        <v>9</v>
+      </c>
+      <c r="E255" t="s">
+        <v>10</v>
+      </c>
+      <c r="F255" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B256" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C256" t="s">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s">
+        <v>9</v>
+      </c>
+      <c r="E256" t="s">
+        <v>10</v>
+      </c>
+      <c r="F256" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B257" s="2">
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="C257" t="s">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s">
+        <v>7</v>
+      </c>
+      <c r="E257" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B258" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C258" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" t="s">
+        <v>12</v>
+      </c>
+      <c r="E258" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B259" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C259" t="s">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s">
+        <v>9</v>
+      </c>
+      <c r="E259" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B260" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C260" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" t="s">
+        <v>9</v>
+      </c>
+      <c r="E260" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B261" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" t="s">
+        <v>7</v>
+      </c>
+      <c r="E261" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B262" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" t="s">
+        <v>9</v>
+      </c>
+      <c r="E262" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B263" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263" t="s">
+        <v>7</v>
+      </c>
+      <c r="E263" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B264" s="2">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="C264" t="s">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s">
+        <v>7</v>
+      </c>
+      <c r="E264" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B265" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" t="s">
+        <v>9</v>
+      </c>
+      <c r="E265" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B266" s="2">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="C266" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" t="s">
+        <v>12</v>
+      </c>
+      <c r="E266" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B267" s="2">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="C267" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" t="s">
+        <v>12</v>
+      </c>
+      <c r="E267" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B268" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" t="s">
+        <v>9</v>
+      </c>
+      <c r="E268" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B269" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C269" t="s">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s">
+        <v>9</v>
+      </c>
+      <c r="E269" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5361,15 +5702,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0C70FDF0B26AD4FA4259CEBC91FB5F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c6962a9d305734c2ec0c2a37890fad5c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="16876bfc-a385-419d-bea5-c698de3eba8a" xmlns:ns4="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3e3cef9a0907c943c64d8f5eb4183f4" ns3:_="" ns4:_="">
     <xsd:import namespace="16876bfc-a385-419d-bea5-c698de3eba8a"/>
@@ -5602,6 +5934,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5611,14 +5952,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{232A5036-7EEB-4EC9-A12C-0ED9267D19A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5633,6 +5966,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/poop.xlsx
+++ b/data/poop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\perso\code\mydogtracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23725C6D-919E-4F55-B7FF-BFA1A638B6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DBDA0C-5903-4930-8788-BBED1D6C48B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F269"/>
+  <dimension ref="A1:F285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="F271" sqref="F271"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="A271" sqref="A271:A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5475,7 +5475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>45400</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>45400</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>45400</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>45400</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>45400</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>45400</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>45400</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>45400</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>45400</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>45400</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>45400</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>45400</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>45400</v>
       </c>
@@ -5694,6 +5694,287 @@
       </c>
       <c r="E269" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B270" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C270" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270" t="s">
+        <v>9</v>
+      </c>
+      <c r="E270" t="s">
+        <v>10</v>
+      </c>
+      <c r="F270" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B271" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C271" t="s">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s">
+        <v>9</v>
+      </c>
+      <c r="E271" t="s">
+        <v>10</v>
+      </c>
+      <c r="F271" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B272" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C272" t="s">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s">
+        <v>9</v>
+      </c>
+      <c r="E272" t="s">
+        <v>10</v>
+      </c>
+      <c r="F272" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B273" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C273" t="s">
+        <v>6</v>
+      </c>
+      <c r="D273" t="s">
+        <v>12</v>
+      </c>
+      <c r="E273" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B274" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="C274" t="s">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s">
+        <v>7</v>
+      </c>
+      <c r="E274" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B275" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C275" t="s">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B276" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C276" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276" t="s">
+        <v>12</v>
+      </c>
+      <c r="E276" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B277" s="2">
+        <v>0.75694444444444442</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" t="s">
+        <v>12</v>
+      </c>
+      <c r="E277" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B278" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B279" s="2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C279" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B280" s="2">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="C280" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" t="s">
+        <v>7</v>
+      </c>
+      <c r="E280" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B281" s="2">
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="C281" t="s">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s">
+        <v>7</v>
+      </c>
+      <c r="E281" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B282" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C282" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" t="s">
+        <v>12</v>
+      </c>
+      <c r="E282" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B283" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" t="s">
+        <v>12</v>
+      </c>
+      <c r="E283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B284" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" t="s">
+        <v>12</v>
+      </c>
+      <c r="E284" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B285" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C285" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" t="s">
+        <v>12</v>
+      </c>
+      <c r="E285" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5702,6 +5983,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0C70FDF0B26AD4FA4259CEBC91FB5F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c6962a9d305734c2ec0c2a37890fad5c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="16876bfc-a385-419d-bea5-c698de3eba8a" xmlns:ns4="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3e3cef9a0907c943c64d8f5eb4183f4" ns3:_="" ns4:_="">
     <xsd:import namespace="16876bfc-a385-419d-bea5-c698de3eba8a"/>
@@ -5934,15 +6224,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5952,6 +6233,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{232A5036-7EEB-4EC9-A12C-0ED9267D19A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5966,14 +6255,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/poop.xlsx
+++ b/data/poop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\perso\code\mydogtracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DBDA0C-5903-4930-8788-BBED1D6C48B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5DE84B-3048-44EC-B17E-9D68CE297A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F285"/>
+  <dimension ref="A1:F303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="A271" sqref="A271:A285"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="D302" sqref="D302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5756,7 +5756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>45401</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>45401</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>45401</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>45401</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>45401</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>45401</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>45401</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>45401</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>45401</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>45401</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>45401</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>45401</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>45401</v>
       </c>
@@ -5974,6 +5974,324 @@
         <v>12</v>
       </c>
       <c r="E285" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B286" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286" t="s">
+        <v>9</v>
+      </c>
+      <c r="E286" t="s">
+        <v>10</v>
+      </c>
+      <c r="F286" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B287" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C287" t="s">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s">
+        <v>9</v>
+      </c>
+      <c r="E287" t="s">
+        <v>10</v>
+      </c>
+      <c r="F287" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B288" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C288" t="s">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s">
+        <v>9</v>
+      </c>
+      <c r="E288" t="s">
+        <v>10</v>
+      </c>
+      <c r="F288" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B289" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" t="s">
+        <v>9</v>
+      </c>
+      <c r="E289" t="s">
+        <v>10</v>
+      </c>
+      <c r="F289" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B290" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" t="s">
+        <v>12</v>
+      </c>
+      <c r="E290" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B291" s="2">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="C291" t="s">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s">
+        <v>12</v>
+      </c>
+      <c r="E291" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B292" s="2">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" t="s">
+        <v>12</v>
+      </c>
+      <c r="E292" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B293" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C293" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293" t="s">
+        <v>9</v>
+      </c>
+      <c r="E293" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B294" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294" t="s">
+        <v>7</v>
+      </c>
+      <c r="E294" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B295" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C295" t="s">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B296" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" t="s">
+        <v>12</v>
+      </c>
+      <c r="E296" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B297" s="2">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="C297" t="s">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s">
+        <v>7</v>
+      </c>
+      <c r="E297" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B298" s="2">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298" t="s">
+        <v>7</v>
+      </c>
+      <c r="E298" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B299" s="2">
+        <v>0.77430555555555558</v>
+      </c>
+      <c r="C299" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299" t="s">
+        <v>7</v>
+      </c>
+      <c r="E299" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B300" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" t="s">
+        <v>12</v>
+      </c>
+      <c r="E300" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B301" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C301" t="s">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s">
+        <v>7</v>
+      </c>
+      <c r="E301" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B302" s="2">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302" t="s">
+        <v>12</v>
+      </c>
+      <c r="E302" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B303" s="2">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="C303" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" t="s">
+        <v>12</v>
+      </c>
+      <c r="E303" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5983,15 +6301,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0C70FDF0B26AD4FA4259CEBC91FB5F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c6962a9d305734c2ec0c2a37890fad5c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="16876bfc-a385-419d-bea5-c698de3eba8a" xmlns:ns4="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3e3cef9a0907c943c64d8f5eb4183f4" ns3:_="" ns4:_="">
     <xsd:import namespace="16876bfc-a385-419d-bea5-c698de3eba8a"/>
@@ -6224,6 +6533,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6233,14 +6551,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{232A5036-7EEB-4EC9-A12C-0ED9267D19A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6255,6 +6565,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/poop.xlsx
+++ b/data/poop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\perso\code\mydogtracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5DE84B-3048-44EC-B17E-9D68CE297A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EC8613-317D-441F-92EC-A7E8F3E48C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F303"/>
+  <dimension ref="A1:F327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="D302" sqref="D302"/>
+    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
+      <selection activeCell="A305" sqref="A305:A327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6295,12 +6295,450 @@
         <v>8</v>
       </c>
     </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B304" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C304" t="s">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s">
+        <v>9</v>
+      </c>
+      <c r="E304" t="s">
+        <v>10</v>
+      </c>
+      <c r="F304" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B305" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305" t="s">
+        <v>9</v>
+      </c>
+      <c r="E305" t="s">
+        <v>10</v>
+      </c>
+      <c r="F305" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B306" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C306" t="s">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s">
+        <v>9</v>
+      </c>
+      <c r="E306" t="s">
+        <v>10</v>
+      </c>
+      <c r="F306" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B307" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C307" t="s">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s">
+        <v>9</v>
+      </c>
+      <c r="E307" t="s">
+        <v>10</v>
+      </c>
+      <c r="F307" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B308" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" t="s">
+        <v>9</v>
+      </c>
+      <c r="E308" t="s">
+        <v>10</v>
+      </c>
+      <c r="F308" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B309" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C309" t="s">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s">
+        <v>9</v>
+      </c>
+      <c r="E309" t="s">
+        <v>10</v>
+      </c>
+      <c r="F309" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B310" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C310" t="s">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s">
+        <v>9</v>
+      </c>
+      <c r="E310" t="s">
+        <v>10</v>
+      </c>
+      <c r="F310" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B311" s="2">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="C311" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311" t="s">
+        <v>9</v>
+      </c>
+      <c r="E311" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B312" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C312" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312" t="s">
+        <v>12</v>
+      </c>
+      <c r="E312" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B313" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C313" t="s">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s">
+        <v>7</v>
+      </c>
+      <c r="E313" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B314" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C314" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314" t="s">
+        <v>7</v>
+      </c>
+      <c r="E314" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B315" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" t="s">
+        <v>12</v>
+      </c>
+      <c r="E315" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B316" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C316" t="s">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s">
+        <v>7</v>
+      </c>
+      <c r="E316" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B317" s="2">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" t="s">
+        <v>7</v>
+      </c>
+      <c r="E317" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B318" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" t="s">
+        <v>7</v>
+      </c>
+      <c r="E318" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B319" s="2">
+        <v>0.66805555555555551</v>
+      </c>
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319" t="s">
+        <v>7</v>
+      </c>
+      <c r="E319" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B320" s="2">
+        <v>0.67222222222222228</v>
+      </c>
+      <c r="C320" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320" t="s">
+        <v>7</v>
+      </c>
+      <c r="E320" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B321" s="2">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="C321" t="s">
+        <v>6</v>
+      </c>
+      <c r="D321" t="s">
+        <v>7</v>
+      </c>
+      <c r="E321" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B322" s="2">
+        <v>0.77430555555555558</v>
+      </c>
+      <c r="C322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322" t="s">
+        <v>7</v>
+      </c>
+      <c r="E322" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B323" s="2">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="C323" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323" t="s">
+        <v>7</v>
+      </c>
+      <c r="E323" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B324" s="2">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="C324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324" t="s">
+        <v>12</v>
+      </c>
+      <c r="E324" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B325" s="2">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="C325" t="s">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s">
+        <v>12</v>
+      </c>
+      <c r="E325" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B326" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C326" t="s">
+        <v>6</v>
+      </c>
+      <c r="D326" t="s">
+        <v>9</v>
+      </c>
+      <c r="E326" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B327" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C327" t="s">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s">
+        <v>9</v>
+      </c>
+      <c r="E327" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0C70FDF0B26AD4FA4259CEBC91FB5F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c6962a9d305734c2ec0c2a37890fad5c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="16876bfc-a385-419d-bea5-c698de3eba8a" xmlns:ns4="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3e3cef9a0907c943c64d8f5eb4183f4" ns3:_="" ns4:_="">
     <xsd:import namespace="16876bfc-a385-419d-bea5-c698de3eba8a"/>
@@ -6533,15 +6971,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6551,6 +6980,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{232A5036-7EEB-4EC9-A12C-0ED9267D19A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6565,14 +7002,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/poop.xlsx
+++ b/data/poop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\perso\code\mydogtracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EC8613-317D-441F-92EC-A7E8F3E48C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C06885-04BC-4728-B9BC-EFD30B5BE4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="poop" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F327"/>
+  <dimension ref="A1:F346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" workbookViewId="0">
-      <selection activeCell="A305" sqref="A305:A327"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="D344" sqref="D344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6605,7 +6605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>45403</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>45403</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>45403</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>45403</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>45403</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>45403</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>45403</v>
       </c>
@@ -6722,6 +6722,344 @@
       </c>
       <c r="E327" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B328" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C328" t="s">
+        <v>11</v>
+      </c>
+      <c r="D328" t="s">
+        <v>9</v>
+      </c>
+      <c r="E328" t="s">
+        <v>10</v>
+      </c>
+      <c r="F328" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B329" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" t="s">
+        <v>9</v>
+      </c>
+      <c r="E329" t="s">
+        <v>10</v>
+      </c>
+      <c r="F329" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B330" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C330" t="s">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s">
+        <v>9</v>
+      </c>
+      <c r="E330" t="s">
+        <v>10</v>
+      </c>
+      <c r="F330" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B331" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C331" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331" t="s">
+        <v>9</v>
+      </c>
+      <c r="E331" t="s">
+        <v>10</v>
+      </c>
+      <c r="F331" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B332" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C332" t="s">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s">
+        <v>9</v>
+      </c>
+      <c r="E332" t="s">
+        <v>10</v>
+      </c>
+      <c r="F332" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B333" s="2">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="C333" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333" t="s">
+        <v>12</v>
+      </c>
+      <c r="E333" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B334" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C334" t="s">
+        <v>6</v>
+      </c>
+      <c r="D334" t="s">
+        <v>7</v>
+      </c>
+      <c r="E334" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B335" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C335" t="s">
+        <v>6</v>
+      </c>
+      <c r="D335" t="s">
+        <v>12</v>
+      </c>
+      <c r="E335" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B336" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C336" t="s">
+        <v>11</v>
+      </c>
+      <c r="D336" t="s">
+        <v>12</v>
+      </c>
+      <c r="E336" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B337" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C337" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337" t="s">
+        <v>12</v>
+      </c>
+      <c r="E337" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B338" s="2">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="C338" t="s">
+        <v>6</v>
+      </c>
+      <c r="D338" t="s">
+        <v>12</v>
+      </c>
+      <c r="E338" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B339" s="2">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="C339" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339" t="s">
+        <v>12</v>
+      </c>
+      <c r="E339" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B340" s="2">
+        <v>0.78819444444444442</v>
+      </c>
+      <c r="C340" t="s">
+        <v>6</v>
+      </c>
+      <c r="D340" t="s">
+        <v>12</v>
+      </c>
+      <c r="E340" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B341" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C341" t="s">
+        <v>6</v>
+      </c>
+      <c r="D341" t="s">
+        <v>9</v>
+      </c>
+      <c r="E341" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B342" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C342" t="s">
+        <v>11</v>
+      </c>
+      <c r="D342" t="s">
+        <v>9</v>
+      </c>
+      <c r="E342" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B343" s="2">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="C343" t="s">
+        <v>6</v>
+      </c>
+      <c r="D343" t="s">
+        <v>12</v>
+      </c>
+      <c r="E343" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B344" s="2">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="C344" t="s">
+        <v>11</v>
+      </c>
+      <c r="D344" t="s">
+        <v>12</v>
+      </c>
+      <c r="E344" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B345" s="2">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="C345" t="s">
+        <v>6</v>
+      </c>
+      <c r="D345" t="s">
+        <v>12</v>
+      </c>
+      <c r="E345" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B346" s="2">
+        <v>0.96180555555555558</v>
+      </c>
+      <c r="C346" t="s">
+        <v>6</v>
+      </c>
+      <c r="D346" t="s">
+        <v>12</v>
+      </c>
+      <c r="E346" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6730,15 +7068,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0C70FDF0B26AD4FA4259CEBC91FB5F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c6962a9d305734c2ec0c2a37890fad5c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="16876bfc-a385-419d-bea5-c698de3eba8a" xmlns:ns4="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3e3cef9a0907c943c64d8f5eb4183f4" ns3:_="" ns4:_="">
     <xsd:import namespace="16876bfc-a385-419d-bea5-c698de3eba8a"/>
@@ -6971,6 +7300,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6980,14 +7318,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{232A5036-7EEB-4EC9-A12C-0ED9267D19A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7002,6 +7332,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/poop.xlsx
+++ b/data/poop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\perso\code\mydogtracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C06885-04BC-4728-B9BC-EFD30B5BE4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECC36ED-D5D0-4040-AD46-5321D5F24EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F346"/>
+  <dimension ref="A1:F359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="D344" sqref="D344"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="D355" sqref="D355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6892,7 +6892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>45404</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>45404</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>45404</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>45404</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>45404</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>45404</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>45404</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>45404</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>45404</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>45404</v>
       </c>
@@ -7060,6 +7060,233 @@
       </c>
       <c r="E346" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B347" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C347" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347" t="s">
+        <v>9</v>
+      </c>
+      <c r="E347" t="s">
+        <v>10</v>
+      </c>
+      <c r="F347" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B348" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C348" t="s">
+        <v>11</v>
+      </c>
+      <c r="D348" t="s">
+        <v>9</v>
+      </c>
+      <c r="E348" t="s">
+        <v>10</v>
+      </c>
+      <c r="F348" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B349" s="2">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C349" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349" t="s">
+        <v>12</v>
+      </c>
+      <c r="E349" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B350" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C350" t="s">
+        <v>11</v>
+      </c>
+      <c r="D350" t="s">
+        <v>7</v>
+      </c>
+      <c r="E350" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B351" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C351" t="s">
+        <v>6</v>
+      </c>
+      <c r="D351" t="s">
+        <v>12</v>
+      </c>
+      <c r="E351" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B352" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C352" t="s">
+        <v>6</v>
+      </c>
+      <c r="D352" t="s">
+        <v>7</v>
+      </c>
+      <c r="E352" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B353" s="2">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="C353" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353" t="s">
+        <v>12</v>
+      </c>
+      <c r="E353" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B354" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C354" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354" t="s">
+        <v>7</v>
+      </c>
+      <c r="E354" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B355" s="2">
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355" t="s">
+        <v>12</v>
+      </c>
+      <c r="E355" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B356" s="2">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="C356" t="s">
+        <v>6</v>
+      </c>
+      <c r="D356" t="s">
+        <v>12</v>
+      </c>
+      <c r="E356" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B357" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C357" t="s">
+        <v>11</v>
+      </c>
+      <c r="D357" t="s">
+        <v>9</v>
+      </c>
+      <c r="E357" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B358" s="2">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="C358" t="s">
+        <v>11</v>
+      </c>
+      <c r="D358" t="s">
+        <v>9</v>
+      </c>
+      <c r="E358" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B359" s="2">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="C359" t="s">
+        <v>6</v>
+      </c>
+      <c r="D359" t="s">
+        <v>9</v>
+      </c>
+      <c r="E359" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -7068,6 +7295,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0C70FDF0B26AD4FA4259CEBC91FB5F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c6962a9d305734c2ec0c2a37890fad5c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="16876bfc-a385-419d-bea5-c698de3eba8a" xmlns:ns4="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3e3cef9a0907c943c64d8f5eb4183f4" ns3:_="" ns4:_="">
     <xsd:import namespace="16876bfc-a385-419d-bea5-c698de3eba8a"/>
@@ -7300,15 +7536,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7318,6 +7545,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{232A5036-7EEB-4EC9-A12C-0ED9267D19A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7332,14 +7567,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/poop.xlsx
+++ b/data/poop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\perso\code\mydogtracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECC36ED-D5D0-4040-AD46-5321D5F24EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D4D324-1986-4C26-A65E-908F56725DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="poop" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F359"/>
+  <dimension ref="A1:F376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="D355" sqref="D355"/>
+    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="E368" sqref="E368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7170,7 +7170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>45405</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>45405</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>45405</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>45405</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>45405</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>45405</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>45405</v>
       </c>
@@ -7287,6 +7287,313 @@
       </c>
       <c r="E359" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B360" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C360" t="s">
+        <v>11</v>
+      </c>
+      <c r="D360" t="s">
+        <v>9</v>
+      </c>
+      <c r="E360" t="s">
+        <v>10</v>
+      </c>
+      <c r="F360" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B361" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C361" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361" t="s">
+        <v>9</v>
+      </c>
+      <c r="E361" t="s">
+        <v>10</v>
+      </c>
+      <c r="F361" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B362" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C362" t="s">
+        <v>11</v>
+      </c>
+      <c r="D362" t="s">
+        <v>9</v>
+      </c>
+      <c r="E362" t="s">
+        <v>10</v>
+      </c>
+      <c r="F362" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B363" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C363" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363" t="s">
+        <v>9</v>
+      </c>
+      <c r="E363" t="s">
+        <v>10</v>
+      </c>
+      <c r="F363" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B364" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C364" t="s">
+        <v>11</v>
+      </c>
+      <c r="D364" t="s">
+        <v>9</v>
+      </c>
+      <c r="E364" t="s">
+        <v>10</v>
+      </c>
+      <c r="F364" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B365" s="2">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C365" t="s">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s">
+        <v>9</v>
+      </c>
+      <c r="E365" t="s">
+        <v>10</v>
+      </c>
+      <c r="F365" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B366" s="2">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="C366" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366" t="s">
+        <v>12</v>
+      </c>
+      <c r="E366" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B367" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C367" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367" t="s">
+        <v>7</v>
+      </c>
+      <c r="E367" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B368" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C368" t="s">
+        <v>6</v>
+      </c>
+      <c r="D368" t="s">
+        <v>9</v>
+      </c>
+      <c r="E368" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B369" s="2">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="C369" t="s">
+        <v>6</v>
+      </c>
+      <c r="D369" t="s">
+        <v>7</v>
+      </c>
+      <c r="E369" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B370" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C370" t="s">
+        <v>6</v>
+      </c>
+      <c r="D370" t="s">
+        <v>7</v>
+      </c>
+      <c r="E370" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B371" s="2">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="C371" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371" t="s">
+        <v>12</v>
+      </c>
+      <c r="E371" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B372" s="2">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="C372" t="s">
+        <v>6</v>
+      </c>
+      <c r="D372" t="s">
+        <v>9</v>
+      </c>
+      <c r="E372" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B373" s="2">
+        <v>0.80555555555555558</v>
+      </c>
+      <c r="C373" t="s">
+        <v>6</v>
+      </c>
+      <c r="D373" t="s">
+        <v>12</v>
+      </c>
+      <c r="E373" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B374" s="2">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="C374" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374" t="s">
+        <v>12</v>
+      </c>
+      <c r="E374" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B375" s="2">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="C375" t="s">
+        <v>11</v>
+      </c>
+      <c r="D375" t="s">
+        <v>12</v>
+      </c>
+      <c r="E375" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B376" s="2">
+        <v>0.93055555555555558</v>
+      </c>
+      <c r="C376" t="s">
+        <v>6</v>
+      </c>
+      <c r="D376" t="s">
+        <v>12</v>
+      </c>
+      <c r="E376" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -7295,15 +7602,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0C70FDF0B26AD4FA4259CEBC91FB5F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c6962a9d305734c2ec0c2a37890fad5c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="16876bfc-a385-419d-bea5-c698de3eba8a" xmlns:ns4="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3e3cef9a0907c943c64d8f5eb4183f4" ns3:_="" ns4:_="">
     <xsd:import namespace="16876bfc-a385-419d-bea5-c698de3eba8a"/>
@@ -7536,6 +7834,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7545,14 +7852,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{232A5036-7EEB-4EC9-A12C-0ED9267D19A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7567,6 +7866,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/poop.xlsx
+++ b/data/poop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\perso\code\mydogtracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D4D324-1986-4C26-A65E-908F56725DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE720E0-301C-4595-B35C-26337E0EB384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F376"/>
+  <dimension ref="A1:F404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
-      <selection activeCell="E368" sqref="E368"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="A378" sqref="A378:A404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7460,7 +7460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>45406</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>45406</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>45406</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>45406</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>45406</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>45406</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>45406</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>45406</v>
       </c>
@@ -7593,6 +7593,497 @@
         <v>12</v>
       </c>
       <c r="E376" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B377" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C377" t="s">
+        <v>11</v>
+      </c>
+      <c r="D377" t="s">
+        <v>9</v>
+      </c>
+      <c r="E377" t="s">
+        <v>10</v>
+      </c>
+      <c r="F377" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B378" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C378" t="s">
+        <v>6</v>
+      </c>
+      <c r="D378" t="s">
+        <v>9</v>
+      </c>
+      <c r="E378" t="s">
+        <v>10</v>
+      </c>
+      <c r="F378" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B379" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C379" t="s">
+        <v>11</v>
+      </c>
+      <c r="D379" t="s">
+        <v>9</v>
+      </c>
+      <c r="E379" t="s">
+        <v>10</v>
+      </c>
+      <c r="F379" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B380" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C380" t="s">
+        <v>6</v>
+      </c>
+      <c r="D380" t="s">
+        <v>9</v>
+      </c>
+      <c r="E380" t="s">
+        <v>10</v>
+      </c>
+      <c r="F380" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B381" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C381" t="s">
+        <v>11</v>
+      </c>
+      <c r="D381" t="s">
+        <v>9</v>
+      </c>
+      <c r="E381" t="s">
+        <v>10</v>
+      </c>
+      <c r="F381" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B382" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C382" t="s">
+        <v>6</v>
+      </c>
+      <c r="D382" t="s">
+        <v>12</v>
+      </c>
+      <c r="E382" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B383" s="2">
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="C383" t="s">
+        <v>11</v>
+      </c>
+      <c r="D383" t="s">
+        <v>7</v>
+      </c>
+      <c r="E383" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B384" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C384" t="s">
+        <v>6</v>
+      </c>
+      <c r="D384" t="s">
+        <v>12</v>
+      </c>
+      <c r="E384" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B385" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="C385" t="s">
+        <v>6</v>
+      </c>
+      <c r="D385" t="s">
+        <v>12</v>
+      </c>
+      <c r="E385" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B386" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C386" t="s">
+        <v>6</v>
+      </c>
+      <c r="D386" t="s">
+        <v>9</v>
+      </c>
+      <c r="E386" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B387" s="2">
+        <v>0.57986111111111116</v>
+      </c>
+      <c r="C387" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387" t="s">
+        <v>12</v>
+      </c>
+      <c r="E387" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B388" s="2">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="C388" t="s">
+        <v>6</v>
+      </c>
+      <c r="D388" t="s">
+        <v>12</v>
+      </c>
+      <c r="E388" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B389" s="2">
+        <v>0.58125000000000004</v>
+      </c>
+      <c r="C389" t="s">
+        <v>6</v>
+      </c>
+      <c r="D389" t="s">
+        <v>12</v>
+      </c>
+      <c r="E389" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B390" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="C390" t="s">
+        <v>6</v>
+      </c>
+      <c r="D390" t="s">
+        <v>12</v>
+      </c>
+      <c r="E390" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B391" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C391" t="s">
+        <v>6</v>
+      </c>
+      <c r="D391" t="s">
+        <v>7</v>
+      </c>
+      <c r="E391" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B392" s="2">
+        <v>0.71180555555555558</v>
+      </c>
+      <c r="C392" t="s">
+        <v>6</v>
+      </c>
+      <c r="D392" t="s">
+        <v>7</v>
+      </c>
+      <c r="E392" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B393" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="C393" t="s">
+        <v>6</v>
+      </c>
+      <c r="D393" t="s">
+        <v>7</v>
+      </c>
+      <c r="E393" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B394" s="2">
+        <v>0.71875</v>
+      </c>
+      <c r="C394" t="s">
+        <v>6</v>
+      </c>
+      <c r="D394" t="s">
+        <v>7</v>
+      </c>
+      <c r="E394" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B395" s="2">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C395" t="s">
+        <v>11</v>
+      </c>
+      <c r="D395" t="s">
+        <v>12</v>
+      </c>
+      <c r="E395" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B396" s="2">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="C396" t="s">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s">
+        <v>7</v>
+      </c>
+      <c r="E396" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B397" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C397" t="s">
+        <v>6</v>
+      </c>
+      <c r="D397" t="s">
+        <v>12</v>
+      </c>
+      <c r="E397" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B398" s="2">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="C398" t="s">
+        <v>6</v>
+      </c>
+      <c r="D398" t="s">
+        <v>12</v>
+      </c>
+      <c r="E398" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B399" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C399" t="s">
+        <v>6</v>
+      </c>
+      <c r="D399" t="s">
+        <v>12</v>
+      </c>
+      <c r="E399" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B400" s="2">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="C400" t="s">
+        <v>6</v>
+      </c>
+      <c r="D400" t="s">
+        <v>12</v>
+      </c>
+      <c r="E400" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B401" s="2">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="C401" t="s">
+        <v>11</v>
+      </c>
+      <c r="D401" t="s">
+        <v>12</v>
+      </c>
+      <c r="E401" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B402" s="2">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="C402" t="s">
+        <v>6</v>
+      </c>
+      <c r="D402" t="s">
+        <v>12</v>
+      </c>
+      <c r="E402" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B403" s="2">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="C403" t="s">
+        <v>6</v>
+      </c>
+      <c r="D403" t="s">
+        <v>12</v>
+      </c>
+      <c r="E403" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B404" s="2">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="C404" t="s">
+        <v>6</v>
+      </c>
+      <c r="D404" t="s">
+        <v>12</v>
+      </c>
+      <c r="E404" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7602,6 +8093,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0C70FDF0B26AD4FA4259CEBC91FB5F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c6962a9d305734c2ec0c2a37890fad5c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="16876bfc-a385-419d-bea5-c698de3eba8a" xmlns:ns4="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3e3cef9a0907c943c64d8f5eb4183f4" ns3:_="" ns4:_="">
     <xsd:import namespace="16876bfc-a385-419d-bea5-c698de3eba8a"/>
@@ -7834,15 +8334,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7852,6 +8343,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{232A5036-7EEB-4EC9-A12C-0ED9267D19A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7866,14 +8365,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/poop.xlsx
+++ b/data/poop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\perso\code\mydogtracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE720E0-301C-4595-B35C-26337E0EB384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F506A4F-E9C1-44F9-939F-E02CEF685B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="poop" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F404"/>
+  <dimension ref="A1:F426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="A378" sqref="A378:A404"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="G424" sqref="G424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8019,7 +8019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>45407</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>45407</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>45407</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>45407</v>
       </c>
@@ -8084,6 +8084,389 @@
         <v>12</v>
       </c>
       <c r="E404" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B405" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C405" t="s">
+        <v>11</v>
+      </c>
+      <c r="D405" t="s">
+        <v>9</v>
+      </c>
+      <c r="E405" t="s">
+        <v>10</v>
+      </c>
+      <c r="F405" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B406" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C406" t="s">
+        <v>6</v>
+      </c>
+      <c r="D406" t="s">
+        <v>9</v>
+      </c>
+      <c r="E406" t="s">
+        <v>10</v>
+      </c>
+      <c r="F406" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B407" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C407" t="s">
+        <v>11</v>
+      </c>
+      <c r="D407" t="s">
+        <v>9</v>
+      </c>
+      <c r="E407" t="s">
+        <v>10</v>
+      </c>
+      <c r="F407" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B408" s="2">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="C408" t="s">
+        <v>6</v>
+      </c>
+      <c r="D408" t="s">
+        <v>12</v>
+      </c>
+      <c r="E408" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B409" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C409" t="s">
+        <v>6</v>
+      </c>
+      <c r="D409" t="s">
+        <v>12</v>
+      </c>
+      <c r="E409" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B410" s="2">
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="C410" t="s">
+        <v>6</v>
+      </c>
+      <c r="D410" t="s">
+        <v>12</v>
+      </c>
+      <c r="E410" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B411" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C411" t="s">
+        <v>6</v>
+      </c>
+      <c r="D411" t="s">
+        <v>9</v>
+      </c>
+      <c r="E411" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B412" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C412" t="s">
+        <v>6</v>
+      </c>
+      <c r="D412" t="s">
+        <v>12</v>
+      </c>
+      <c r="E412" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B413" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C413" t="s">
+        <v>11</v>
+      </c>
+      <c r="D413" t="s">
+        <v>7</v>
+      </c>
+      <c r="E413" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B414" s="2">
+        <v>0.54513888888888884</v>
+      </c>
+      <c r="C414" t="s">
+        <v>6</v>
+      </c>
+      <c r="D414" t="s">
+        <v>12</v>
+      </c>
+      <c r="E414" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B415" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C415" t="s">
+        <v>6</v>
+      </c>
+      <c r="D415" t="s">
+        <v>12</v>
+      </c>
+      <c r="E415" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B416" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="C416" t="s">
+        <v>6</v>
+      </c>
+      <c r="D416" t="s">
+        <v>9</v>
+      </c>
+      <c r="E416" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B417" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C417" t="s">
+        <v>6</v>
+      </c>
+      <c r="D417" t="s">
+        <v>12</v>
+      </c>
+      <c r="E417" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B418" s="2">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C418" t="s">
+        <v>6</v>
+      </c>
+      <c r="D418" t="s">
+        <v>12</v>
+      </c>
+      <c r="E418" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B419" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C419" t="s">
+        <v>11</v>
+      </c>
+      <c r="D419" t="s">
+        <v>7</v>
+      </c>
+      <c r="E419" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B420" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C420" t="s">
+        <v>6</v>
+      </c>
+      <c r="D420" t="s">
+        <v>7</v>
+      </c>
+      <c r="E420" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B421" s="2">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="C421" t="s">
+        <v>6</v>
+      </c>
+      <c r="D421" t="s">
+        <v>12</v>
+      </c>
+      <c r="E421" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B422" s="2">
+        <v>0.85069444444444442</v>
+      </c>
+      <c r="C422" t="s">
+        <v>6</v>
+      </c>
+      <c r="D422" t="s">
+        <v>12</v>
+      </c>
+      <c r="E422" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B423" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="C423" t="s">
+        <v>6</v>
+      </c>
+      <c r="D423" t="s">
+        <v>12</v>
+      </c>
+      <c r="E423" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B424" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C424" t="s">
+        <v>6</v>
+      </c>
+      <c r="D424" t="s">
+        <v>7</v>
+      </c>
+      <c r="E424" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B425" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C425" t="s">
+        <v>11</v>
+      </c>
+      <c r="D425" t="s">
+        <v>7</v>
+      </c>
+      <c r="E425" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B426" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C426" t="s">
+        <v>6</v>
+      </c>
+      <c r="D426" t="s">
+        <v>12</v>
+      </c>
+      <c r="E426" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8093,15 +8476,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0C70FDF0B26AD4FA4259CEBC91FB5F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c6962a9d305734c2ec0c2a37890fad5c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="16876bfc-a385-419d-bea5-c698de3eba8a" xmlns:ns4="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3e3cef9a0907c943c64d8f5eb4183f4" ns3:_="" ns4:_="">
     <xsd:import namespace="16876bfc-a385-419d-bea5-c698de3eba8a"/>
@@ -8334,6 +8708,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8343,14 +8726,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{232A5036-7EEB-4EC9-A12C-0ED9267D19A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8365,6 +8740,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/poop.xlsx
+++ b/data/poop.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\perso\code\mydogtracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F506A4F-E9C1-44F9-939F-E02CEF685B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E33825-CC6A-48B7-9EC9-39AF45153721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F426"/>
+  <dimension ref="A1:F480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="G424" sqref="G424"/>
+    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
+      <selection activeCell="F480" sqref="F480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8300,7 +8300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>45408</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>45408</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>45408</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>45408</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>45408</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>45408</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>45408</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>45408</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>45408</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>45408</v>
       </c>
@@ -8467,6 +8467,960 @@
         <v>12</v>
       </c>
       <c r="E426" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B427" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C427" t="s">
+        <v>6</v>
+      </c>
+      <c r="D427" t="s">
+        <v>9</v>
+      </c>
+      <c r="E427" t="s">
+        <v>10</v>
+      </c>
+      <c r="F427" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B428" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C428" t="s">
+        <v>11</v>
+      </c>
+      <c r="D428" t="s">
+        <v>9</v>
+      </c>
+      <c r="E428" t="s">
+        <v>10</v>
+      </c>
+      <c r="F428" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B429" s="2">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C429" t="s">
+        <v>6</v>
+      </c>
+      <c r="D429" t="s">
+        <v>12</v>
+      </c>
+      <c r="E429" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B430" s="2">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="C430" t="s">
+        <v>6</v>
+      </c>
+      <c r="D430" t="s">
+        <v>7</v>
+      </c>
+      <c r="E430" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B431" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C431" t="s">
+        <v>11</v>
+      </c>
+      <c r="D431" t="s">
+        <v>7</v>
+      </c>
+      <c r="E431" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B432" s="2">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="C432" t="s">
+        <v>6</v>
+      </c>
+      <c r="D432" t="s">
+        <v>7</v>
+      </c>
+      <c r="E432" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B433" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C433" t="s">
+        <v>6</v>
+      </c>
+      <c r="D433" t="s">
+        <v>7</v>
+      </c>
+      <c r="E433" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B434" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C434" t="s">
+        <v>6</v>
+      </c>
+      <c r="D434" t="s">
+        <v>12</v>
+      </c>
+      <c r="E434" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B435" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C435" t="s">
+        <v>6</v>
+      </c>
+      <c r="D435" t="s">
+        <v>7</v>
+      </c>
+      <c r="E435" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B436" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C436" t="s">
+        <v>6</v>
+      </c>
+      <c r="D436" t="s">
+        <v>7</v>
+      </c>
+      <c r="E436" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B437" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C437" t="s">
+        <v>6</v>
+      </c>
+      <c r="D437" t="s">
+        <v>12</v>
+      </c>
+      <c r="E437" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B438" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C438" t="s">
+        <v>6</v>
+      </c>
+      <c r="D438" t="s">
+        <v>12</v>
+      </c>
+      <c r="E438" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B439" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C439" t="s">
+        <v>11</v>
+      </c>
+      <c r="D439" t="s">
+        <v>7</v>
+      </c>
+      <c r="E439" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B440" s="2">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="C440" t="s">
+        <v>6</v>
+      </c>
+      <c r="D440" t="s">
+        <v>12</v>
+      </c>
+      <c r="E440" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B441" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C441" t="s">
+        <v>6</v>
+      </c>
+      <c r="D441" t="s">
+        <v>7</v>
+      </c>
+      <c r="E441" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B442" s="2">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="C442" t="s">
+        <v>6</v>
+      </c>
+      <c r="D442" t="s">
+        <v>7</v>
+      </c>
+      <c r="E442" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B443" s="2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C443" t="s">
+        <v>6</v>
+      </c>
+      <c r="D443" t="s">
+        <v>7</v>
+      </c>
+      <c r="E443" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B444" s="2">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="C444" t="s">
+        <v>6</v>
+      </c>
+      <c r="D444" t="s">
+        <v>12</v>
+      </c>
+      <c r="E444" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B445" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C445" t="s">
+        <v>11</v>
+      </c>
+      <c r="D445" t="s">
+        <v>12</v>
+      </c>
+      <c r="E445" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B446" s="2">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="C446" t="s">
+        <v>6</v>
+      </c>
+      <c r="D446" t="s">
+        <v>12</v>
+      </c>
+      <c r="E446" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
+        <v>45409</v>
+      </c>
+      <c r="B447" s="2">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="C447" t="s">
+        <v>11</v>
+      </c>
+      <c r="D447" t="s">
+        <v>12</v>
+      </c>
+      <c r="E447" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B448" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C448" t="s">
+        <v>11</v>
+      </c>
+      <c r="D448" t="s">
+        <v>9</v>
+      </c>
+      <c r="E448" t="s">
+        <v>10</v>
+      </c>
+      <c r="F448" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B449" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C449" t="s">
+        <v>6</v>
+      </c>
+      <c r="D449" t="s">
+        <v>9</v>
+      </c>
+      <c r="E449" t="s">
+        <v>10</v>
+      </c>
+      <c r="F449" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B450" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C450" t="s">
+        <v>11</v>
+      </c>
+      <c r="D450" t="s">
+        <v>9</v>
+      </c>
+      <c r="E450" t="s">
+        <v>10</v>
+      </c>
+      <c r="F450" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B451" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C451" t="s">
+        <v>6</v>
+      </c>
+      <c r="D451" t="s">
+        <v>9</v>
+      </c>
+      <c r="E451" t="s">
+        <v>10</v>
+      </c>
+      <c r="F451" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B452" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C452" t="s">
+        <v>11</v>
+      </c>
+      <c r="D452" t="s">
+        <v>9</v>
+      </c>
+      <c r="E452" t="s">
+        <v>10</v>
+      </c>
+      <c r="F452" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B453" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C453" t="s">
+        <v>6</v>
+      </c>
+      <c r="D453" t="s">
+        <v>12</v>
+      </c>
+      <c r="E453" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B454" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="C454" t="s">
+        <v>6</v>
+      </c>
+      <c r="D454" t="s">
+        <v>7</v>
+      </c>
+      <c r="E454" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B455" s="2">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="C455" t="s">
+        <v>6</v>
+      </c>
+      <c r="D455" t="s">
+        <v>12</v>
+      </c>
+      <c r="E455" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B456" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="C456" t="s">
+        <v>6</v>
+      </c>
+      <c r="D456" t="s">
+        <v>12</v>
+      </c>
+      <c r="E456" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B457" s="2">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="C457" t="s">
+        <v>6</v>
+      </c>
+      <c r="D457" t="s">
+        <v>12</v>
+      </c>
+      <c r="E457" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B458" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C458" t="s">
+        <v>11</v>
+      </c>
+      <c r="D458" t="s">
+        <v>7</v>
+      </c>
+      <c r="E458" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B459" s="2">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="C459" t="s">
+        <v>6</v>
+      </c>
+      <c r="D459" t="s">
+        <v>12</v>
+      </c>
+      <c r="E459" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B460" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C460" t="s">
+        <v>11</v>
+      </c>
+      <c r="D460" t="s">
+        <v>9</v>
+      </c>
+      <c r="E460" t="s">
+        <v>10</v>
+      </c>
+      <c r="F460" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B461" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C461" t="s">
+        <v>6</v>
+      </c>
+      <c r="D461" t="s">
+        <v>9</v>
+      </c>
+      <c r="E461" t="s">
+        <v>10</v>
+      </c>
+      <c r="F461" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B462" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C462" t="s">
+        <v>11</v>
+      </c>
+      <c r="D462" t="s">
+        <v>9</v>
+      </c>
+      <c r="E462" t="s">
+        <v>10</v>
+      </c>
+      <c r="F462" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B463" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C463" t="s">
+        <v>6</v>
+      </c>
+      <c r="D463" t="s">
+        <v>9</v>
+      </c>
+      <c r="E463" t="s">
+        <v>10</v>
+      </c>
+      <c r="F463" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B464" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C464" t="s">
+        <v>11</v>
+      </c>
+      <c r="D464" t="s">
+        <v>9</v>
+      </c>
+      <c r="E464" t="s">
+        <v>10</v>
+      </c>
+      <c r="F464" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B465" s="2">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C465" t="s">
+        <v>6</v>
+      </c>
+      <c r="D465" t="s">
+        <v>9</v>
+      </c>
+      <c r="E465" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B466" s="2">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C466" t="s">
+        <v>6</v>
+      </c>
+      <c r="D466" t="s">
+        <v>7</v>
+      </c>
+      <c r="E466" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B467" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C467" t="s">
+        <v>6</v>
+      </c>
+      <c r="D467" t="s">
+        <v>7</v>
+      </c>
+      <c r="E467" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B468" s="2">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="C468" t="s">
+        <v>6</v>
+      </c>
+      <c r="D468" t="s">
+        <v>12</v>
+      </c>
+      <c r="E468" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B469" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C469" t="s">
+        <v>6</v>
+      </c>
+      <c r="D469" t="s">
+        <v>7</v>
+      </c>
+      <c r="E469" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B470" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C470" t="s">
+        <v>11</v>
+      </c>
+      <c r="D470" t="s">
+        <v>7</v>
+      </c>
+      <c r="E470" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B471" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="C471" t="s">
+        <v>11</v>
+      </c>
+      <c r="D471" t="s">
+        <v>7</v>
+      </c>
+      <c r="E471" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B472" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C472" t="s">
+        <v>6</v>
+      </c>
+      <c r="D472" t="s">
+        <v>7</v>
+      </c>
+      <c r="E472" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B473" s="2">
+        <v>0.71875</v>
+      </c>
+      <c r="C473" t="s">
+        <v>6</v>
+      </c>
+      <c r="D473" t="s">
+        <v>7</v>
+      </c>
+      <c r="E473" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B474" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C474" t="s">
+        <v>6</v>
+      </c>
+      <c r="D474" t="s">
+        <v>7</v>
+      </c>
+      <c r="E474" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B475" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C475" t="s">
+        <v>6</v>
+      </c>
+      <c r="D475" t="s">
+        <v>7</v>
+      </c>
+      <c r="E475" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B476" s="2">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="C476" t="s">
+        <v>6</v>
+      </c>
+      <c r="D476" t="s">
+        <v>12</v>
+      </c>
+      <c r="E476" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B477" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C477" t="s">
+        <v>6</v>
+      </c>
+      <c r="D477" t="s">
+        <v>12</v>
+      </c>
+      <c r="E477" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B478" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C478" t="s">
+        <v>11</v>
+      </c>
+      <c r="D478" t="s">
+        <v>7</v>
+      </c>
+      <c r="E478" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B479" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C479" t="s">
+        <v>6</v>
+      </c>
+      <c r="D479" t="s">
+        <v>12</v>
+      </c>
+      <c r="E479" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B480" s="2">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="C480" t="s">
+        <v>6</v>
+      </c>
+      <c r="D480" t="s">
+        <v>12</v>
+      </c>
+      <c r="E480" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8476,6 +9430,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0C70FDF0B26AD4FA4259CEBC91FB5F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c6962a9d305734c2ec0c2a37890fad5c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="16876bfc-a385-419d-bea5-c698de3eba8a" xmlns:ns4="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3e3cef9a0907c943c64d8f5eb4183f4" ns3:_="" ns4:_="">
     <xsd:import namespace="16876bfc-a385-419d-bea5-c698de3eba8a"/>
@@ -8708,15 +9671,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8726,6 +9680,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{232A5036-7EEB-4EC9-A12C-0ED9267D19A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8740,14 +9702,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/poop.xlsx
+++ b/data/poop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\perso\code\mydogtracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E33825-CC6A-48B7-9EC9-39AF45153721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4439ADB2-AF5E-4CC5-A740-1F3CDB0D0E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="poop" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F480"/>
+  <dimension ref="A1:F513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
-      <selection activeCell="F480" sqref="F480"/>
+    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="I512" sqref="I512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9424,18 +9424,602 @@
         <v>8</v>
       </c>
     </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B481" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C481" t="s">
+        <v>6</v>
+      </c>
+      <c r="D481" t="s">
+        <v>9</v>
+      </c>
+      <c r="E481" t="s">
+        <v>10</v>
+      </c>
+      <c r="F481" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B482" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C482" t="s">
+        <v>11</v>
+      </c>
+      <c r="D482" t="s">
+        <v>9</v>
+      </c>
+      <c r="E482" t="s">
+        <v>10</v>
+      </c>
+      <c r="F482" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B483" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C483" t="s">
+        <v>6</v>
+      </c>
+      <c r="D483" t="s">
+        <v>12</v>
+      </c>
+      <c r="E483" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B484" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C484" t="s">
+        <v>11</v>
+      </c>
+      <c r="D484" t="s">
+        <v>12</v>
+      </c>
+      <c r="E484" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B485" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="C485" t="s">
+        <v>6</v>
+      </c>
+      <c r="D485" t="s">
+        <v>12</v>
+      </c>
+      <c r="E485" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B486" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C486" t="s">
+        <v>6</v>
+      </c>
+      <c r="D486" t="s">
+        <v>12</v>
+      </c>
+      <c r="E486" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B487" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C487" t="s">
+        <v>6</v>
+      </c>
+      <c r="D487" t="s">
+        <v>12</v>
+      </c>
+      <c r="E487" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B488" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="C488" t="s">
+        <v>11</v>
+      </c>
+      <c r="D488" t="s">
+        <v>9</v>
+      </c>
+      <c r="E488" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B489" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C489" t="s">
+        <v>6</v>
+      </c>
+      <c r="D489" t="s">
+        <v>12</v>
+      </c>
+      <c r="E489" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B490" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C490" t="s">
+        <v>6</v>
+      </c>
+      <c r="D490" t="s">
+        <v>12</v>
+      </c>
+      <c r="E490" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B491" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C491" t="s">
+        <v>11</v>
+      </c>
+      <c r="D491" t="s">
+        <v>12</v>
+      </c>
+      <c r="E491" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B492" s="2">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="C492" t="s">
+        <v>6</v>
+      </c>
+      <c r="D492" t="s">
+        <v>12</v>
+      </c>
+      <c r="E492" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B493" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C493" t="s">
+        <v>6</v>
+      </c>
+      <c r="D493" t="s">
+        <v>9</v>
+      </c>
+      <c r="E493" t="s">
+        <v>10</v>
+      </c>
+      <c r="F493" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B494" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C494" t="s">
+        <v>6</v>
+      </c>
+      <c r="D494" t="s">
+        <v>9</v>
+      </c>
+      <c r="E494" t="s">
+        <v>10</v>
+      </c>
+      <c r="F494" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B495" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C495" t="s">
+        <v>11</v>
+      </c>
+      <c r="D495" t="s">
+        <v>9</v>
+      </c>
+      <c r="E495" t="s">
+        <v>10</v>
+      </c>
+      <c r="F495" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B496" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C496" t="s">
+        <v>6</v>
+      </c>
+      <c r="D496" t="s">
+        <v>9</v>
+      </c>
+      <c r="E496" t="s">
+        <v>10</v>
+      </c>
+      <c r="F496" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B497" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C497" t="s">
+        <v>11</v>
+      </c>
+      <c r="D497" t="s">
+        <v>9</v>
+      </c>
+      <c r="E497" t="s">
+        <v>10</v>
+      </c>
+      <c r="F497" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B498" s="2">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C498" t="s">
+        <v>6</v>
+      </c>
+      <c r="D498" t="s">
+        <v>12</v>
+      </c>
+      <c r="E498" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B499" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C499" t="s">
+        <v>11</v>
+      </c>
+      <c r="D499" t="s">
+        <v>7</v>
+      </c>
+      <c r="E499" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B500" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C500" t="s">
+        <v>6</v>
+      </c>
+      <c r="D500" t="s">
+        <v>12</v>
+      </c>
+      <c r="E500" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B501" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C501" t="s">
+        <v>6</v>
+      </c>
+      <c r="D501" t="s">
+        <v>12</v>
+      </c>
+      <c r="E501" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B502" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C502" t="s">
+        <v>6</v>
+      </c>
+      <c r="D502" t="s">
+        <v>12</v>
+      </c>
+      <c r="E502" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B503" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C503" t="s">
+        <v>6</v>
+      </c>
+      <c r="D503" t="s">
+        <v>7</v>
+      </c>
+      <c r="E503" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B504" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C504" t="s">
+        <v>11</v>
+      </c>
+      <c r="D504" t="s">
+        <v>7</v>
+      </c>
+      <c r="E504" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B505" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="C505" t="s">
+        <v>6</v>
+      </c>
+      <c r="D505" t="s">
+        <v>7</v>
+      </c>
+      <c r="E505" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B506" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C506" t="s">
+        <v>6</v>
+      </c>
+      <c r="D506" t="s">
+        <v>9</v>
+      </c>
+      <c r="E506" t="s">
+        <v>10</v>
+      </c>
+      <c r="F506" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B507" s="2">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="C507" t="s">
+        <v>6</v>
+      </c>
+      <c r="D507" t="s">
+        <v>12</v>
+      </c>
+      <c r="E507" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B508" s="2">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="C508" t="s">
+        <v>11</v>
+      </c>
+      <c r="D508" t="s">
+        <v>12</v>
+      </c>
+      <c r="E508" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B509" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C509" t="s">
+        <v>6</v>
+      </c>
+      <c r="D509" t="s">
+        <v>12</v>
+      </c>
+      <c r="E509" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B510" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C510" t="s">
+        <v>6</v>
+      </c>
+      <c r="D510" t="s">
+        <v>12</v>
+      </c>
+      <c r="E510" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B511" s="2">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="C511" t="s">
+        <v>11</v>
+      </c>
+      <c r="D511" t="s">
+        <v>12</v>
+      </c>
+      <c r="E511" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B512" s="2">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="C512" t="s">
+        <v>6</v>
+      </c>
+      <c r="D512" t="s">
+        <v>12</v>
+      </c>
+      <c r="E512" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B513" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C513" t="s">
+        <v>6</v>
+      </c>
+      <c r="D513" t="s">
+        <v>12</v>
+      </c>
+      <c r="E513" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9672,17 +10256,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E665C12C-8D13-4B35-A758-684F109373B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="16876bfc-a385-419d-bea5-c698de3eba8a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9707,18 +10301,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E665C12C-8D13-4B35-A758-684F109373B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="16876bfc-a385-419d-bea5-c698de3eba8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/poop.xlsx
+++ b/data/poop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\perso\code\mydogtracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4439ADB2-AF5E-4CC5-A740-1F3CDB0D0E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F170DCB-183A-4902-BF61-8D33D23FD99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30285" yWindow="2325" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="poop" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F513"/>
+  <dimension ref="A1:F538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
-      <selection activeCell="I512" sqref="I512"/>
+    <sheetView tabSelected="1" topLeftCell="A506" workbookViewId="0">
+      <selection activeCell="E519" sqref="E519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9992,7 +9992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>45413</v>
       </c>
@@ -10006,6 +10006,437 @@
         <v>12</v>
       </c>
       <c r="E513" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B514" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C514" t="s">
+        <v>6</v>
+      </c>
+      <c r="D514" t="s">
+        <v>9</v>
+      </c>
+      <c r="E514" t="s">
+        <v>10</v>
+      </c>
+      <c r="F514" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B515" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C515" t="s">
+        <v>11</v>
+      </c>
+      <c r="D515" t="s">
+        <v>9</v>
+      </c>
+      <c r="E515" t="s">
+        <v>10</v>
+      </c>
+      <c r="F515" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B516" s="2">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C516" t="s">
+        <v>6</v>
+      </c>
+      <c r="D516" t="s">
+        <v>12</v>
+      </c>
+      <c r="E516" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B517" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C517" t="s">
+        <v>6</v>
+      </c>
+      <c r="D517" t="s">
+        <v>12</v>
+      </c>
+      <c r="E517" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A518" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B518" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C518" t="s">
+        <v>11</v>
+      </c>
+      <c r="D518" t="s">
+        <v>7</v>
+      </c>
+      <c r="E518" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B519" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C519" t="s">
+        <v>6</v>
+      </c>
+      <c r="D519" t="s">
+        <v>7</v>
+      </c>
+      <c r="E519" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A520" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B520" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C520" t="s">
+        <v>6</v>
+      </c>
+      <c r="D520" t="s">
+        <v>7</v>
+      </c>
+      <c r="E520" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A521" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B521" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C521" t="s">
+        <v>6</v>
+      </c>
+      <c r="D521" t="s">
+        <v>7</v>
+      </c>
+      <c r="E521" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A522" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B522" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C522" t="s">
+        <v>6</v>
+      </c>
+      <c r="D522" t="s">
+        <v>7</v>
+      </c>
+      <c r="E522" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A523" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B523" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C523" t="s">
+        <v>6</v>
+      </c>
+      <c r="D523" t="s">
+        <v>7</v>
+      </c>
+      <c r="E523" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B524" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C524" t="s">
+        <v>6</v>
+      </c>
+      <c r="D524" t="s">
+        <v>12</v>
+      </c>
+      <c r="E524" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B525" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="C525" t="s">
+        <v>6</v>
+      </c>
+      <c r="D525" t="s">
+        <v>12</v>
+      </c>
+      <c r="E525" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A526" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B526" s="2">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C526" t="s">
+        <v>6</v>
+      </c>
+      <c r="D526" t="s">
+        <v>12</v>
+      </c>
+      <c r="E526" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A527" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B527" s="2">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C527" t="s">
+        <v>6</v>
+      </c>
+      <c r="D527" t="s">
+        <v>12</v>
+      </c>
+      <c r="E527" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A528" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B528" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C528" t="s">
+        <v>6</v>
+      </c>
+      <c r="D528" t="s">
+        <v>7</v>
+      </c>
+      <c r="E528" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A529" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B529" s="2">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C529" t="s">
+        <v>6</v>
+      </c>
+      <c r="D529" t="s">
+        <v>7</v>
+      </c>
+      <c r="E529" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B530" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C530" t="s">
+        <v>6</v>
+      </c>
+      <c r="D530" t="s">
+        <v>7</v>
+      </c>
+      <c r="E530" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A531" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B531" s="2">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="C531" t="s">
+        <v>6</v>
+      </c>
+      <c r="D531" t="s">
+        <v>12</v>
+      </c>
+      <c r="E531" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A532" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B532" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C532" t="s">
+        <v>6</v>
+      </c>
+      <c r="D532" t="s">
+        <v>12</v>
+      </c>
+      <c r="E532" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B533" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C533" t="s">
+        <v>11</v>
+      </c>
+      <c r="D533" t="s">
+        <v>12</v>
+      </c>
+      <c r="E533" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B534" s="2">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="C534" t="s">
+        <v>6</v>
+      </c>
+      <c r="D534" t="s">
+        <v>7</v>
+      </c>
+      <c r="E534" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B535" s="2">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="C535" t="s">
+        <v>6</v>
+      </c>
+      <c r="D535" t="s">
+        <v>12</v>
+      </c>
+      <c r="E535" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B536" s="2">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="C536" t="s">
+        <v>6</v>
+      </c>
+      <c r="D536" t="s">
+        <v>12</v>
+      </c>
+      <c r="E536" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B537" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C537" t="s">
+        <v>6</v>
+      </c>
+      <c r="D537" t="s">
+        <v>9</v>
+      </c>
+      <c r="E537" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B538" s="2">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="C538" t="s">
+        <v>11</v>
+      </c>
+      <c r="D538" t="s">
+        <v>12</v>
+      </c>
+      <c r="E538" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10015,14 +10446,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0C70FDF0B26AD4FA4259CEBC91FB5F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c6962a9d305734c2ec0c2a37890fad5c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="16876bfc-a385-419d-bea5-c698de3eba8a" xmlns:ns4="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3e3cef9a0907c943c64d8f5eb4183f4" ns3:_="" ns4:_="">
     <xsd:import namespace="16876bfc-a385-419d-bea5-c698de3eba8a"/>
@@ -10255,6 +10678,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10265,23 +10696,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E665C12C-8D13-4B35-A758-684F109373B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="16876bfc-a385-419d-bea5-c698de3eba8a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{232A5036-7EEB-4EC9-A12C-0ED9267D19A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10300,6 +10714,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E665C12C-8D13-4B35-A758-684F109373B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="16876bfc-a385-419d-bea5-c698de3eba8a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
   <ds:schemaRefs>

--- a/data/poop.xlsx
+++ b/data/poop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\perso\code\mydogtracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F170DCB-183A-4902-BF61-8D33D23FD99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB9CEC8-1EAD-46CE-BCFF-EA393A88CF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30285" yWindow="2325" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="poop" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F538"/>
+  <dimension ref="A1:F615"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A506" workbookViewId="0">
-      <selection activeCell="E519" sqref="E519"/>
+    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
+      <selection activeCell="E594" sqref="E594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10270,7 +10270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>45414</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>45414</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>45414</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>45414</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>45414</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>45414</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>45414</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>45414</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>45414</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>45414</v>
       </c>
@@ -10437,6 +10437,1348 @@
         <v>12</v>
       </c>
       <c r="E538" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A539" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B539" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C539" t="s">
+        <v>6</v>
+      </c>
+      <c r="D539" t="s">
+        <v>9</v>
+      </c>
+      <c r="E539" t="s">
+        <v>10</v>
+      </c>
+      <c r="F539" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A540" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B540" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C540" t="s">
+        <v>11</v>
+      </c>
+      <c r="D540" t="s">
+        <v>9</v>
+      </c>
+      <c r="E540" t="s">
+        <v>10</v>
+      </c>
+      <c r="F540" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A541" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B541" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C541" t="s">
+        <v>6</v>
+      </c>
+      <c r="D541" t="s">
+        <v>7</v>
+      </c>
+      <c r="E541" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A542" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B542" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C542" t="s">
+        <v>6</v>
+      </c>
+      <c r="D542" t="s">
+        <v>12</v>
+      </c>
+      <c r="E542" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A543" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B543" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C543" t="s">
+        <v>6</v>
+      </c>
+      <c r="D543" t="s">
+        <v>7</v>
+      </c>
+      <c r="E543" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A544" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B544" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C544" t="s">
+        <v>6</v>
+      </c>
+      <c r="D544" t="s">
+        <v>7</v>
+      </c>
+      <c r="E544" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A545" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B545" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="C545" t="s">
+        <v>6</v>
+      </c>
+      <c r="D545" t="s">
+        <v>7</v>
+      </c>
+      <c r="E545" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A546" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B546" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="C546" t="s">
+        <v>6</v>
+      </c>
+      <c r="D546" t="s">
+        <v>7</v>
+      </c>
+      <c r="E546" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A547" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B547" s="2">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="C547" t="s">
+        <v>6</v>
+      </c>
+      <c r="D547" t="s">
+        <v>12</v>
+      </c>
+      <c r="E547" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A548" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B548" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C548" t="s">
+        <v>6</v>
+      </c>
+      <c r="D548" t="s">
+        <v>9</v>
+      </c>
+      <c r="E548" t="s">
+        <v>10</v>
+      </c>
+      <c r="F548" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A549" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B549" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C549" t="s">
+        <v>11</v>
+      </c>
+      <c r="D549" t="s">
+        <v>9</v>
+      </c>
+      <c r="E549" t="s">
+        <v>10</v>
+      </c>
+      <c r="F549" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A550" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B550" s="2">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="C550" t="s">
+        <v>6</v>
+      </c>
+      <c r="D550" t="s">
+        <v>12</v>
+      </c>
+      <c r="E550" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A551" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B551" s="2">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="C551" t="s">
+        <v>6</v>
+      </c>
+      <c r="D551" t="s">
+        <v>12</v>
+      </c>
+      <c r="E551" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B552" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C552" t="s">
+        <v>6</v>
+      </c>
+      <c r="D552" t="s">
+        <v>7</v>
+      </c>
+      <c r="E552" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A553" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B553" s="2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C553" t="s">
+        <v>6</v>
+      </c>
+      <c r="D553" t="s">
+        <v>7</v>
+      </c>
+      <c r="E553" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B554" s="2">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="C554" t="s">
+        <v>6</v>
+      </c>
+      <c r="D554" t="s">
+        <v>7</v>
+      </c>
+      <c r="E554" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A555" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B555" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C555" t="s">
+        <v>6</v>
+      </c>
+      <c r="D555" t="s">
+        <v>7</v>
+      </c>
+      <c r="E555" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B556" s="2">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="C556" t="s">
+        <v>6</v>
+      </c>
+      <c r="D556" t="s">
+        <v>7</v>
+      </c>
+      <c r="E556" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B557" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="C557" t="s">
+        <v>6</v>
+      </c>
+      <c r="D557" t="s">
+        <v>12</v>
+      </c>
+      <c r="E557" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B558" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C558" t="s">
+        <v>6</v>
+      </c>
+      <c r="D558" t="s">
+        <v>12</v>
+      </c>
+      <c r="E558" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A559" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B559" s="2">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="C559" t="s">
+        <v>11</v>
+      </c>
+      <c r="D559" t="s">
+        <v>12</v>
+      </c>
+      <c r="E559" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B560" s="2">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="C560" t="s">
+        <v>6</v>
+      </c>
+      <c r="D560" t="s">
+        <v>12</v>
+      </c>
+      <c r="E560" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A561" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B561" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C561" t="s">
+        <v>6</v>
+      </c>
+      <c r="D561" t="s">
+        <v>12</v>
+      </c>
+      <c r="E561" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A562" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B562" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C562" t="s">
+        <v>11</v>
+      </c>
+      <c r="D562" t="s">
+        <v>9</v>
+      </c>
+      <c r="E562" t="s">
+        <v>10</v>
+      </c>
+      <c r="F562" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A563" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B563" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C563" t="s">
+        <v>6</v>
+      </c>
+      <c r="D563" t="s">
+        <v>9</v>
+      </c>
+      <c r="E563" t="s">
+        <v>10</v>
+      </c>
+      <c r="F563" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A564" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B564" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C564" t="s">
+        <v>11</v>
+      </c>
+      <c r="D564" t="s">
+        <v>9</v>
+      </c>
+      <c r="E564" t="s">
+        <v>10</v>
+      </c>
+      <c r="F564" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A565" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B565" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C565" t="s">
+        <v>6</v>
+      </c>
+      <c r="D565" t="s">
+        <v>9</v>
+      </c>
+      <c r="E565" t="s">
+        <v>10</v>
+      </c>
+      <c r="F565" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A566" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B566" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C566" t="s">
+        <v>11</v>
+      </c>
+      <c r="D566" t="s">
+        <v>9</v>
+      </c>
+      <c r="E566" t="s">
+        <v>10</v>
+      </c>
+      <c r="F566" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A567" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B567" s="2">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="C567" t="s">
+        <v>6</v>
+      </c>
+      <c r="D567" t="s">
+        <v>12</v>
+      </c>
+      <c r="E567" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A568" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B568" s="2">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C568" t="s">
+        <v>6</v>
+      </c>
+      <c r="D568" t="s">
+        <v>7</v>
+      </c>
+      <c r="E568" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A569" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B569" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C569" t="s">
+        <v>6</v>
+      </c>
+      <c r="D569" t="s">
+        <v>12</v>
+      </c>
+      <c r="E569" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A570" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B570" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C570" t="s">
+        <v>6</v>
+      </c>
+      <c r="D570" t="s">
+        <v>12</v>
+      </c>
+      <c r="E570" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A571" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B571" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C571" t="s">
+        <v>6</v>
+      </c>
+      <c r="D571" t="s">
+        <v>7</v>
+      </c>
+      <c r="E571" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A572" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B572" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C572" t="s">
+        <v>6</v>
+      </c>
+      <c r="D572" t="s">
+        <v>12</v>
+      </c>
+      <c r="E572" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A573" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B573" s="2">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="C573" t="s">
+        <v>6</v>
+      </c>
+      <c r="D573" t="s">
+        <v>12</v>
+      </c>
+      <c r="E573" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A574" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B574" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="C574" t="s">
+        <v>6</v>
+      </c>
+      <c r="D574" t="s">
+        <v>12</v>
+      </c>
+      <c r="E574" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A575" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B575" s="2">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="C575" t="s">
+        <v>6</v>
+      </c>
+      <c r="D575" t="s">
+        <v>12</v>
+      </c>
+      <c r="E575" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A576" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B576" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C576" t="s">
+        <v>6</v>
+      </c>
+      <c r="D576" t="s">
+        <v>12</v>
+      </c>
+      <c r="E576" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A577" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B577" s="2">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="C577" t="s">
+        <v>6</v>
+      </c>
+      <c r="D577" t="s">
+        <v>12</v>
+      </c>
+      <c r="E577" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A578" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B578" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C578" t="s">
+        <v>6</v>
+      </c>
+      <c r="D578" t="s">
+        <v>7</v>
+      </c>
+      <c r="E578" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A579" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B579" s="2">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="C579" t="s">
+        <v>6</v>
+      </c>
+      <c r="D579" t="s">
+        <v>7</v>
+      </c>
+      <c r="E579" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A580" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B580" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C580" t="s">
+        <v>11</v>
+      </c>
+      <c r="D580" t="s">
+        <v>9</v>
+      </c>
+      <c r="E580" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A581" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B581" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C581" t="s">
+        <v>6</v>
+      </c>
+      <c r="D581" t="s">
+        <v>12</v>
+      </c>
+      <c r="E581" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A582" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B582" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="C582" t="s">
+        <v>6</v>
+      </c>
+      <c r="D582" t="s">
+        <v>12</v>
+      </c>
+      <c r="E582" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A583" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B583" s="2">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="C583" t="s">
+        <v>6</v>
+      </c>
+      <c r="D583" t="s">
+        <v>12</v>
+      </c>
+      <c r="E583" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A584" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B584" s="2">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="C584" t="s">
+        <v>6</v>
+      </c>
+      <c r="D584" t="s">
+        <v>12</v>
+      </c>
+      <c r="E584" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A585" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B585" s="2">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="C585" t="s">
+        <v>6</v>
+      </c>
+      <c r="D585" t="s">
+        <v>12</v>
+      </c>
+      <c r="E585" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A586" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B586" s="2">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="C586" t="s">
+        <v>6</v>
+      </c>
+      <c r="D586" t="s">
+        <v>12</v>
+      </c>
+      <c r="E586" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A587" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B587" s="2">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="C587" t="s">
+        <v>6</v>
+      </c>
+      <c r="D587" t="s">
+        <v>12</v>
+      </c>
+      <c r="E587" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A588" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B588" s="2">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="C588" t="s">
+        <v>6</v>
+      </c>
+      <c r="D588" t="s">
+        <v>12</v>
+      </c>
+      <c r="E588" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A589" s="1">
+        <v>45416</v>
+      </c>
+      <c r="B589" s="2">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="C589" t="s">
+        <v>11</v>
+      </c>
+      <c r="D589" t="s">
+        <v>12</v>
+      </c>
+      <c r="E589" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A590" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B590" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C590" t="s">
+        <v>6</v>
+      </c>
+      <c r="D590" t="s">
+        <v>9</v>
+      </c>
+      <c r="E590" t="s">
+        <v>10</v>
+      </c>
+      <c r="F590" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A591" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B591" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C591" t="s">
+        <v>11</v>
+      </c>
+      <c r="D591" t="s">
+        <v>9</v>
+      </c>
+      <c r="E591" t="s">
+        <v>10</v>
+      </c>
+      <c r="F591" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A592" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B592" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C592" t="s">
+        <v>6</v>
+      </c>
+      <c r="D592" t="s">
+        <v>12</v>
+      </c>
+      <c r="E592" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A593" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B593" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C593" t="s">
+        <v>6</v>
+      </c>
+      <c r="D593" t="s">
+        <v>7</v>
+      </c>
+      <c r="E593" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A594" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B594" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C594" t="s">
+        <v>6</v>
+      </c>
+      <c r="D594" t="s">
+        <v>12</v>
+      </c>
+      <c r="E594" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A595" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B595" s="2">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="C595" t="s">
+        <v>6</v>
+      </c>
+      <c r="D595" t="s">
+        <v>12</v>
+      </c>
+      <c r="E595" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A596" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B596" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="C596" t="s">
+        <v>6</v>
+      </c>
+      <c r="D596" t="s">
+        <v>12</v>
+      </c>
+      <c r="E596" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A597" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B597" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="C597" t="s">
+        <v>6</v>
+      </c>
+      <c r="D597" t="s">
+        <v>7</v>
+      </c>
+      <c r="E597" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A598" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B598" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C598" t="s">
+        <v>6</v>
+      </c>
+      <c r="D598" t="s">
+        <v>7</v>
+      </c>
+      <c r="E598" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A599" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B599" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C599" t="s">
+        <v>6</v>
+      </c>
+      <c r="D599" t="s">
+        <v>7</v>
+      </c>
+      <c r="E599" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A600" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B600" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C600" t="s">
+        <v>11</v>
+      </c>
+      <c r="D600" t="s">
+        <v>7</v>
+      </c>
+      <c r="E600" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A601" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B601" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C601" t="s">
+        <v>6</v>
+      </c>
+      <c r="D601" t="s">
+        <v>7</v>
+      </c>
+      <c r="E601" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A602" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B602" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C602" t="s">
+        <v>6</v>
+      </c>
+      <c r="D602" t="s">
+        <v>7</v>
+      </c>
+      <c r="E602" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A603" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B603" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="C603" t="s">
+        <v>6</v>
+      </c>
+      <c r="D603" t="s">
+        <v>12</v>
+      </c>
+      <c r="E603" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A604" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B604" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="C604" t="s">
+        <v>6</v>
+      </c>
+      <c r="D604" t="s">
+        <v>12</v>
+      </c>
+      <c r="E604" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A605" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B605" s="2">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="C605" t="s">
+        <v>6</v>
+      </c>
+      <c r="D605" t="s">
+        <v>12</v>
+      </c>
+      <c r="E605" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A606" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B606" s="2">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C606" t="s">
+        <v>6</v>
+      </c>
+      <c r="D606" t="s">
+        <v>12</v>
+      </c>
+      <c r="E606" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A607" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B607" s="2">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="C607" t="s">
+        <v>6</v>
+      </c>
+      <c r="D607" t="s">
+        <v>12</v>
+      </c>
+      <c r="E607" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A608" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B608" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="C608" t="s">
+        <v>6</v>
+      </c>
+      <c r="D608" t="s">
+        <v>12</v>
+      </c>
+      <c r="E608" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A609" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B609" s="2">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="C609" t="s">
+        <v>6</v>
+      </c>
+      <c r="D609" t="s">
+        <v>7</v>
+      </c>
+      <c r="E609" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A610" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B610" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C610" t="s">
+        <v>6</v>
+      </c>
+      <c r="D610" t="s">
+        <v>7</v>
+      </c>
+      <c r="E610" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A611" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B611" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C611" t="s">
+        <v>11</v>
+      </c>
+      <c r="D611" t="s">
+        <v>7</v>
+      </c>
+      <c r="E611" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A612" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B612" s="2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C612" t="s">
+        <v>6</v>
+      </c>
+      <c r="D612" t="s">
+        <v>7</v>
+      </c>
+      <c r="E612" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A613" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B613" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C613" t="s">
+        <v>6</v>
+      </c>
+      <c r="D613" t="s">
+        <v>12</v>
+      </c>
+      <c r="E613" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A614" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B614" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="C614" t="s">
+        <v>6</v>
+      </c>
+      <c r="D614" t="s">
+        <v>12</v>
+      </c>
+      <c r="E614" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A615" s="1">
+        <v>45417</v>
+      </c>
+      <c r="B615" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C615" t="s">
+        <v>6</v>
+      </c>
+      <c r="D615" t="s">
+        <v>12</v>
+      </c>
+      <c r="E615" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10446,6 +11788,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0C70FDF0B26AD4FA4259CEBC91FB5F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c6962a9d305734c2ec0c2a37890fad5c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="16876bfc-a385-419d-bea5-c698de3eba8a" xmlns:ns4="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3e3cef9a0907c943c64d8f5eb4183f4" ns3:_="" ns4:_="">
     <xsd:import namespace="16876bfc-a385-419d-bea5-c698de3eba8a"/>
@@ -10678,14 +12028,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10696,6 +12038,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E665C12C-8D13-4B35-A758-684F109373B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="16876bfc-a385-419d-bea5-c698de3eba8a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{232A5036-7EEB-4EC9-A12C-0ED9267D19A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10714,23 +12073,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E665C12C-8D13-4B35-A758-684F109373B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="16876bfc-a385-419d-bea5-c698de3eba8a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
   <ds:schemaRefs>

--- a/data/poop.xlsx
+++ b/data/poop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\perso\code\mydogtracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB9CEC8-1EAD-46CE-BCFF-EA393A88CF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA85452-1592-4B2B-A4F0-59A26458A3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="poop" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F615"/>
+  <dimension ref="A1:F620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
-      <selection activeCell="E594" sqref="E594"/>
+    <sheetView tabSelected="1" topLeftCell="A593" workbookViewId="0">
+      <selection activeCell="A617" sqref="A617:A620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11663,7 +11663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>45417</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>45417</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>45417</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>45417</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>45417</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>45417</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>45417</v>
       </c>
@@ -11779,6 +11779,97 @@
         <v>12</v>
       </c>
       <c r="E615" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A616" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B616" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C616" t="s">
+        <v>6</v>
+      </c>
+      <c r="D616" t="s">
+        <v>9</v>
+      </c>
+      <c r="E616" t="s">
+        <v>10</v>
+      </c>
+      <c r="F616" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A617" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B617" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C617" t="s">
+        <v>11</v>
+      </c>
+      <c r="D617" t="s">
+        <v>9</v>
+      </c>
+      <c r="E617" t="s">
+        <v>10</v>
+      </c>
+      <c r="F617" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A618" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B618" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C618" t="s">
+        <v>11</v>
+      </c>
+      <c r="D618" t="s">
+        <v>12</v>
+      </c>
+      <c r="E618" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A619" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B619" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C619" t="s">
+        <v>11</v>
+      </c>
+      <c r="D619" t="s">
+        <v>7</v>
+      </c>
+      <c r="E619" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A620" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B620" s="2">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="C620" t="s">
+        <v>11</v>
+      </c>
+      <c r="D620" t="s">
+        <v>12</v>
+      </c>
+      <c r="E620" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11796,6 +11887,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0C70FDF0B26AD4FA4259CEBC91FB5F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c6962a9d305734c2ec0c2a37890fad5c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="16876bfc-a385-419d-bea5-c698de3eba8a" xmlns:ns4="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3e3cef9a0907c943c64d8f5eb4183f4" ns3:_="" ns4:_="">
     <xsd:import namespace="16876bfc-a385-419d-bea5-c698de3eba8a"/>
@@ -12028,15 +12128,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E665C12C-8D13-4B35-A758-684F109373B3}">
   <ds:schemaRefs>
@@ -12055,6 +12146,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{232A5036-7EEB-4EC9-A12C-0ED9267D19A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12071,12 +12170,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/poop.xlsx
+++ b/data/poop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\perso\code\mydogtracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA85452-1592-4B2B-A4F0-59A26458A3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36A920A-96CE-4334-BA18-C04377ECD33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F620"/>
+  <dimension ref="A1:F633"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A593" workbookViewId="0">
-      <selection activeCell="A617" sqref="A617:A620"/>
+    <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
+      <selection activeCell="A630" sqref="A630:A633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11873,26 +11873,268 @@
         <v>8</v>
       </c>
     </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A621" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B621" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C621" t="s">
+        <v>11</v>
+      </c>
+      <c r="D621" t="s">
+        <v>9</v>
+      </c>
+      <c r="E621" t="s">
+        <v>10</v>
+      </c>
+      <c r="F621" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A622" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B622" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C622" t="s">
+        <v>11</v>
+      </c>
+      <c r="D622" t="s">
+        <v>12</v>
+      </c>
+      <c r="E622" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A623" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B623" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C623" t="s">
+        <v>6</v>
+      </c>
+      <c r="D623" t="s">
+        <v>9</v>
+      </c>
+      <c r="E623" t="s">
+        <v>10</v>
+      </c>
+      <c r="F623" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A624" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B624" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C624" t="s">
+        <v>11</v>
+      </c>
+      <c r="D624" t="s">
+        <v>9</v>
+      </c>
+      <c r="E624" t="s">
+        <v>10</v>
+      </c>
+      <c r="F624" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A625" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B625" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C625" t="s">
+        <v>6</v>
+      </c>
+      <c r="D625" t="s">
+        <v>9</v>
+      </c>
+      <c r="E625" t="s">
+        <v>10</v>
+      </c>
+      <c r="F625" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A626" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B626" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C626" t="s">
+        <v>11</v>
+      </c>
+      <c r="D626" t="s">
+        <v>9</v>
+      </c>
+      <c r="E626" t="s">
+        <v>10</v>
+      </c>
+      <c r="F626" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A627" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B627" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="C627" t="s">
+        <v>11</v>
+      </c>
+      <c r="D627" t="s">
+        <v>12</v>
+      </c>
+      <c r="E627" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A628" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B628" s="2">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C628" t="s">
+        <v>11</v>
+      </c>
+      <c r="D628" t="s">
+        <v>12</v>
+      </c>
+      <c r="E628" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A629" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B629" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C629" t="s">
+        <v>6</v>
+      </c>
+      <c r="D629" t="s">
+        <v>9</v>
+      </c>
+      <c r="E629" t="s">
+        <v>10</v>
+      </c>
+      <c r="F629" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A630" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B630" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C630" t="s">
+        <v>11</v>
+      </c>
+      <c r="D630" t="s">
+        <v>9</v>
+      </c>
+      <c r="E630" t="s">
+        <v>10</v>
+      </c>
+      <c r="F630" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A631" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B631" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C631" t="s">
+        <v>11</v>
+      </c>
+      <c r="D631" t="s">
+        <v>12</v>
+      </c>
+      <c r="E631" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A632" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B632" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C632" t="s">
+        <v>11</v>
+      </c>
+      <c r="D632" t="s">
+        <v>12</v>
+      </c>
+      <c r="E632" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A633" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B633" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C633" t="s">
+        <v>11</v>
+      </c>
+      <c r="D633" t="s">
+        <v>12</v>
+      </c>
+      <c r="E633" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12129,6 +12371,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E665C12C-8D13-4B35-A758-684F109373B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12141,14 +12391,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="16876bfc-a385-419d-bea5-c698de3eba8a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/poop.xlsx
+++ b/data/poop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\perso\code\mydogtracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36A920A-96CE-4334-BA18-C04377ECD33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72706A6C-F093-4CC0-B9A9-1D2395295D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F633"/>
+  <dimension ref="A1:F648"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
-      <selection activeCell="A630" sqref="A630:A633"/>
+    <sheetView tabSelected="1" topLeftCell="A625" workbookViewId="0">
+      <selection activeCell="N643" sqref="N643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12112,6 +12112,288 @@
         <v>12</v>
       </c>
       <c r="E633" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A634" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B634" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C634" t="s">
+        <v>6</v>
+      </c>
+      <c r="D634" t="s">
+        <v>9</v>
+      </c>
+      <c r="E634" t="s">
+        <v>10</v>
+      </c>
+      <c r="F634" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A635" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B635" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C635" t="s">
+        <v>11</v>
+      </c>
+      <c r="D635" t="s">
+        <v>9</v>
+      </c>
+      <c r="E635" t="s">
+        <v>10</v>
+      </c>
+      <c r="F635" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A636" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B636" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C636" t="s">
+        <v>11</v>
+      </c>
+      <c r="D636" t="s">
+        <v>9</v>
+      </c>
+      <c r="E636" t="s">
+        <v>10</v>
+      </c>
+      <c r="F636" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A637" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B637" s="2">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="C637" t="s">
+        <v>11</v>
+      </c>
+      <c r="D637" t="s">
+        <v>7</v>
+      </c>
+      <c r="E637" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A638" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B638" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C638" t="s">
+        <v>6</v>
+      </c>
+      <c r="D638" t="s">
+        <v>9</v>
+      </c>
+      <c r="E638" t="s">
+        <v>10</v>
+      </c>
+      <c r="F638" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A639" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B639" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C639" t="s">
+        <v>11</v>
+      </c>
+      <c r="D639" t="s">
+        <v>9</v>
+      </c>
+      <c r="E639" t="s">
+        <v>10</v>
+      </c>
+      <c r="F639" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A640" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B640" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C640" t="s">
+        <v>6</v>
+      </c>
+      <c r="D640" t="s">
+        <v>9</v>
+      </c>
+      <c r="E640" t="s">
+        <v>10</v>
+      </c>
+      <c r="F640" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A641" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B641" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C641" t="s">
+        <v>11</v>
+      </c>
+      <c r="D641" t="s">
+        <v>9</v>
+      </c>
+      <c r="E641" t="s">
+        <v>10</v>
+      </c>
+      <c r="F641" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A642" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B642" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C642" t="s">
+        <v>11</v>
+      </c>
+      <c r="D642" t="s">
+        <v>12</v>
+      </c>
+      <c r="E642" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A643" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B643" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C643" t="s">
+        <v>11</v>
+      </c>
+      <c r="D643" t="s">
+        <v>12</v>
+      </c>
+      <c r="E643" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A644" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B644" s="2">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="C644" t="s">
+        <v>11</v>
+      </c>
+      <c r="D644" t="s">
+        <v>12</v>
+      </c>
+      <c r="E644" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A645" s="1">
+        <v>45424</v>
+      </c>
+      <c r="B645" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C645" t="s">
+        <v>6</v>
+      </c>
+      <c r="D645" t="s">
+        <v>9</v>
+      </c>
+      <c r="E645" t="s">
+        <v>10</v>
+      </c>
+      <c r="F645" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A646" s="1">
+        <v>45424</v>
+      </c>
+      <c r="B646" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C646" t="s">
+        <v>11</v>
+      </c>
+      <c r="D646" t="s">
+        <v>9</v>
+      </c>
+      <c r="E646" t="s">
+        <v>10</v>
+      </c>
+      <c r="F646" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A647" s="1">
+        <v>45424</v>
+      </c>
+      <c r="B647" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C647" t="s">
+        <v>11</v>
+      </c>
+      <c r="D647" t="s">
+        <v>7</v>
+      </c>
+      <c r="E647" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A648" s="1">
+        <v>45424</v>
+      </c>
+      <c r="B648" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C648" t="s">
+        <v>11</v>
+      </c>
+      <c r="D648" t="s">
+        <v>12</v>
+      </c>
+      <c r="E648" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12130,14 +12412,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0C70FDF0B26AD4FA4259CEBC91FB5F2" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c6962a9d305734c2ec0c2a37890fad5c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="16876bfc-a385-419d-bea5-c698de3eba8a" xmlns:ns4="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3e3cef9a0907c943c64d8f5eb4183f4" ns3:_="" ns4:_="">
     <xsd:import namespace="16876bfc-a385-419d-bea5-c698de3eba8a"/>
@@ -12370,6 +12644,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
   <ds:schemaRefs>
@@ -12379,23 +12661,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E665C12C-8D13-4B35-A758-684F109373B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="16876bfc-a385-419d-bea5-c698de3eba8a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{232A5036-7EEB-4EC9-A12C-0ED9267D19A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12412,4 +12677,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E665C12C-8D13-4B35-A758-684F109373B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="16876bfc-a385-419d-bea5-c698de3eba8a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/poop.xlsx
+++ b/data/poop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\perso\code\mydogtracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72706A6C-F093-4CC0-B9A9-1D2395295D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F1C5FB-9F8C-4F28-9864-277B228DA473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="poop" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F648"/>
+  <dimension ref="A1:F653"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A625" workbookViewId="0">
-      <selection activeCell="N643" sqref="N643"/>
+      <selection activeCell="A653" sqref="A653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12397,18 +12397,108 @@
         <v>8</v>
       </c>
     </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A649" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B649" s="2">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="C649" t="s">
+        <v>6</v>
+      </c>
+      <c r="D649" t="s">
+        <v>12</v>
+      </c>
+      <c r="E649" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A650" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B650" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C650" t="s">
+        <v>6</v>
+      </c>
+      <c r="D650" t="s">
+        <v>9</v>
+      </c>
+      <c r="E650" t="s">
+        <v>10</v>
+      </c>
+      <c r="F650" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A651" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B651" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C651" t="s">
+        <v>11</v>
+      </c>
+      <c r="D651" t="s">
+        <v>9</v>
+      </c>
+      <c r="E651" t="s">
+        <v>10</v>
+      </c>
+      <c r="F651" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A652" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B652" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C652" t="s">
+        <v>11</v>
+      </c>
+      <c r="D652" t="s">
+        <v>12</v>
+      </c>
+      <c r="E652" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A653" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B653" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C653" t="s">
+        <v>11</v>
+      </c>
+      <c r="D653" t="s">
+        <v>12</v>
+      </c>
+      <c r="E653" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12645,17 +12735,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E665C12C-8D13-4B35-A758-684F109373B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="16876bfc-a385-419d-bea5-c698de3eba8a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12680,18 +12780,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E665C12C-8D13-4B35-A758-684F109373B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{021F13BB-F333-4031-BD52-8F1FBD992FF4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1524e3e4-b8bd-482f-9e6d-e72fe5f9a17b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="16876bfc-a385-419d-bea5-c698de3eba8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/poop.xlsx
+++ b/data/poop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\perso\code\mydogtracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F1C5FB-9F8C-4F28-9864-277B228DA473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBAB5B2-5590-4BC8-B32A-1C3401C7AAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -925,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F653"/>
+  <dimension ref="A1:F678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A625" workbookViewId="0">
-      <selection activeCell="A653" sqref="A653"/>
+    <sheetView tabSelected="1" topLeftCell="A652" workbookViewId="0">
+      <selection activeCell="B663" sqref="B663"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12485,6 +12485,479 @@
         <v>12</v>
       </c>
       <c r="E653" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A654" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B654" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C654" t="s">
+        <v>11</v>
+      </c>
+      <c r="D654" t="s">
+        <v>9</v>
+      </c>
+      <c r="E654" t="s">
+        <v>10</v>
+      </c>
+      <c r="F654" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A655" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B655" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C655" t="s">
+        <v>6</v>
+      </c>
+      <c r="D655" t="s">
+        <v>9</v>
+      </c>
+      <c r="E655" t="s">
+        <v>10</v>
+      </c>
+      <c r="F655" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A656" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B656" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C656" t="s">
+        <v>11</v>
+      </c>
+      <c r="D656" t="s">
+        <v>9</v>
+      </c>
+      <c r="E656" t="s">
+        <v>10</v>
+      </c>
+      <c r="F656" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A657" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B657" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="C657" t="s">
+        <v>11</v>
+      </c>
+      <c r="D657" t="s">
+        <v>7</v>
+      </c>
+      <c r="E657" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A658" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B658" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C658" t="s">
+        <v>11</v>
+      </c>
+      <c r="D658" t="s">
+        <v>7</v>
+      </c>
+      <c r="E658" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A659" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B659" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C659" t="s">
+        <v>11</v>
+      </c>
+      <c r="D659" t="s">
+        <v>7</v>
+      </c>
+      <c r="E659" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A660" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B660" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="C660" t="s">
+        <v>11</v>
+      </c>
+      <c r="D660" t="s">
+        <v>7</v>
+      </c>
+      <c r="E660" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A661" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B661" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C661" t="s">
+        <v>6</v>
+      </c>
+      <c r="D661" t="s">
+        <v>7</v>
+      </c>
+      <c r="E661" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A662" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B662" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C662" t="s">
+        <v>6</v>
+      </c>
+      <c r="D662" t="s">
+        <v>7</v>
+      </c>
+      <c r="E662" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A663" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B663" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C663" t="s">
+        <v>6</v>
+      </c>
+      <c r="D663" t="s">
+        <v>9</v>
+      </c>
+      <c r="E663" t="s">
+        <v>10</v>
+      </c>
+      <c r="F663" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A664" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B664" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C664" t="s">
+        <v>11</v>
+      </c>
+      <c r="D664" t="s">
+        <v>9</v>
+      </c>
+      <c r="E664" t="s">
+        <v>10</v>
+      </c>
+      <c r="F664" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A665" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B665" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C665" t="s">
+        <v>11</v>
+      </c>
+      <c r="D665" t="s">
+        <v>7</v>
+      </c>
+      <c r="E665" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A666" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B666" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="C666" t="s">
+        <v>11</v>
+      </c>
+      <c r="D666" t="s">
+        <v>7</v>
+      </c>
+      <c r="E666" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A667" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B667" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C667" t="s">
+        <v>6</v>
+      </c>
+      <c r="D667" t="s">
+        <v>9</v>
+      </c>
+      <c r="E667" t="s">
+        <v>10</v>
+      </c>
+      <c r="F667" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A668" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B668" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C668" t="s">
+        <v>11</v>
+      </c>
+      <c r="D668" t="s">
+        <v>9</v>
+      </c>
+      <c r="E668" t="s">
+        <v>10</v>
+      </c>
+      <c r="F668" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A669" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B669" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="C669" t="s">
+        <v>11</v>
+      </c>
+      <c r="D669" t="s">
+        <v>7</v>
+      </c>
+      <c r="E669" t="s">
+        <v>8</v>
+      </c>
+      <c r="F669" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A670" s="1">
+        <v>45430</v>
+      </c>
+      <c r="B670" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C670" t="s">
+        <v>6</v>
+      </c>
+      <c r="D670" t="s">
+        <v>9</v>
+      </c>
+      <c r="E670" t="s">
+        <v>10</v>
+      </c>
+      <c r="F670" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A671" s="1">
+        <v>45430</v>
+      </c>
+      <c r="B671" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C671" t="s">
+        <v>6</v>
+      </c>
+      <c r="D671" t="s">
+        <v>9</v>
+      </c>
+      <c r="E671" t="s">
+        <v>10</v>
+      </c>
+      <c r="F671" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A672" s="1">
+        <v>45430</v>
+      </c>
+      <c r="B672" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C672" t="s">
+        <v>11</v>
+      </c>
+      <c r="D672" t="s">
+        <v>9</v>
+      </c>
+      <c r="E672" t="s">
+        <v>10</v>
+      </c>
+      <c r="F672" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A673" s="1">
+        <v>45430</v>
+      </c>
+      <c r="B673" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C673" t="s">
+        <v>11</v>
+      </c>
+      <c r="D673" t="s">
+        <v>7</v>
+      </c>
+      <c r="E673" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A674" s="1">
+        <v>45431</v>
+      </c>
+      <c r="B674" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C674" t="s">
+        <v>11</v>
+      </c>
+      <c r="D674" t="s">
+        <v>9</v>
+      </c>
+      <c r="E674" t="s">
+        <v>10</v>
+      </c>
+      <c r="F674" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A675" s="1">
+        <v>45431</v>
+      </c>
+      <c r="B675" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="C675" t="s">
+        <v>11</v>
+      </c>
+      <c r="D675" t="s">
+        <v>7</v>
+      </c>
+      <c r="E675" t="s">
+        <v>8</v>
+      </c>
+      <c r="F675" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A676" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B676" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C676" t="s">
+        <v>6</v>
+      </c>
+      <c r="D676" t="s">
+        <v>9</v>
+      </c>
+      <c r="E676" t="s">
+        <v>10</v>
+      </c>
+      <c r="F676" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A677" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B677" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C677" t="s">
+        <v>11</v>
+      </c>
+      <c r="D677" t="s">
+        <v>9</v>
+      </c>
+      <c r="E677" t="s">
+        <v>10</v>
+      </c>
+      <c r="F677" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A678" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B678" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="C678" t="s">
+        <v>11</v>
+      </c>
+      <c r="D678" t="s">
+        <v>7</v>
+      </c>
+      <c r="E678" t="s">
+        <v>8</v>
+      </c>
+      <c r="F678" t="s">
         <v>8</v>
       </c>
     </row>

--- a/data/poop.xlsx
+++ b/data/poop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\perso\code\mydogtracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBAB5B2-5590-4BC8-B32A-1C3401C7AAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF029146-A3A1-46C1-8B90-CD4F12EF2138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="poop" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>target</t>
+  </si>
+  <si>
+    <t>fake</t>
   </si>
 </sst>
 </file>
@@ -925,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F678"/>
+  <dimension ref="A1:F728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A652" workbookViewId="0">
-      <selection activeCell="B663" sqref="B663"/>
+    <sheetView tabSelected="1" topLeftCell="A704" workbookViewId="0">
+      <selection activeCell="D713" sqref="D713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12959,6 +12962,994 @@
       </c>
       <c r="F678" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A679" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B679" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C679" t="s">
+        <v>11</v>
+      </c>
+      <c r="D679" t="s">
+        <v>9</v>
+      </c>
+      <c r="E679" t="s">
+        <v>10</v>
+      </c>
+      <c r="F679" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A680" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B680" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C680" t="s">
+        <v>6</v>
+      </c>
+      <c r="D680" t="s">
+        <v>12</v>
+      </c>
+      <c r="E680" t="s">
+        <v>8</v>
+      </c>
+      <c r="F680" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A681" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B681" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C681" t="s">
+        <v>11</v>
+      </c>
+      <c r="D681" t="s">
+        <v>9</v>
+      </c>
+      <c r="E681" t="s">
+        <v>10</v>
+      </c>
+      <c r="F681" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A682" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B682" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C682" t="s">
+        <v>6</v>
+      </c>
+      <c r="D682" t="s">
+        <v>9</v>
+      </c>
+      <c r="E682" t="s">
+        <v>10</v>
+      </c>
+      <c r="F682" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A683" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B683" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C683" t="s">
+        <v>11</v>
+      </c>
+      <c r="D683" t="s">
+        <v>9</v>
+      </c>
+      <c r="E683" t="s">
+        <v>10</v>
+      </c>
+      <c r="F683" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A684" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B684" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C684" t="s">
+        <v>6</v>
+      </c>
+      <c r="D684" t="s">
+        <v>12</v>
+      </c>
+      <c r="E684" t="s">
+        <v>8</v>
+      </c>
+      <c r="F684" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A685" s="1">
+        <v>45435</v>
+      </c>
+      <c r="B685" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C685" t="s">
+        <v>6</v>
+      </c>
+      <c r="D685" t="s">
+        <v>9</v>
+      </c>
+      <c r="E685" t="s">
+        <v>10</v>
+      </c>
+      <c r="F685" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A686" s="1">
+        <v>45435</v>
+      </c>
+      <c r="B686" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C686" t="s">
+        <v>11</v>
+      </c>
+      <c r="D686" t="s">
+        <v>9</v>
+      </c>
+      <c r="E686" t="s">
+        <v>10</v>
+      </c>
+      <c r="F686" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A687" s="1">
+        <v>45435</v>
+      </c>
+      <c r="B687" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C687" t="s">
+        <v>6</v>
+      </c>
+      <c r="D687" t="s">
+        <v>9</v>
+      </c>
+      <c r="E687" t="s">
+        <v>10</v>
+      </c>
+      <c r="F687" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A688" s="1">
+        <v>45435</v>
+      </c>
+      <c r="B688" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C688" t="s">
+        <v>11</v>
+      </c>
+      <c r="D688" t="s">
+        <v>9</v>
+      </c>
+      <c r="E688" t="s">
+        <v>10</v>
+      </c>
+      <c r="F688" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A689" s="1">
+        <v>45435</v>
+      </c>
+      <c r="B689" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C689" t="s">
+        <v>6</v>
+      </c>
+      <c r="D689" t="s">
+        <v>9</v>
+      </c>
+      <c r="E689" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A690" s="1">
+        <v>45435</v>
+      </c>
+      <c r="B690" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C690" t="s">
+        <v>11</v>
+      </c>
+      <c r="D690" t="s">
+        <v>9</v>
+      </c>
+      <c r="E690" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A691" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B691" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C691" t="s">
+        <v>6</v>
+      </c>
+      <c r="D691" t="s">
+        <v>9</v>
+      </c>
+      <c r="E691" t="s">
+        <v>10</v>
+      </c>
+      <c r="F691" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A692" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B692" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C692" t="s">
+        <v>11</v>
+      </c>
+      <c r="D692" t="s">
+        <v>9</v>
+      </c>
+      <c r="E692" t="s">
+        <v>10</v>
+      </c>
+      <c r="F692" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A693" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B693" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C693" t="s">
+        <v>6</v>
+      </c>
+      <c r="D693" t="s">
+        <v>12</v>
+      </c>
+      <c r="E693" t="s">
+        <v>8</v>
+      </c>
+      <c r="F693" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A694" s="1">
+        <v>45437</v>
+      </c>
+      <c r="B694" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C694" t="s">
+        <v>6</v>
+      </c>
+      <c r="D694" t="s">
+        <v>9</v>
+      </c>
+      <c r="E694" t="s">
+        <v>10</v>
+      </c>
+      <c r="F694" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A695" s="1">
+        <v>45437</v>
+      </c>
+      <c r="B695" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C695" t="s">
+        <v>11</v>
+      </c>
+      <c r="D695" t="s">
+        <v>9</v>
+      </c>
+      <c r="E695" t="s">
+        <v>10</v>
+      </c>
+      <c r="F695" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A696" s="1">
+        <v>45437</v>
+      </c>
+      <c r="B696" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C696" t="s">
+        <v>6</v>
+      </c>
+      <c r="D696" t="s">
+        <v>12</v>
+      </c>
+      <c r="E696" t="s">
+        <v>8</v>
+      </c>
+      <c r="F696" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A697" s="1">
+        <v>45438</v>
+      </c>
+      <c r="B697" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C697" t="s">
+        <v>11</v>
+      </c>
+      <c r="D697" t="s">
+        <v>9</v>
+      </c>
+      <c r="E697" t="s">
+        <v>10</v>
+      </c>
+      <c r="F697" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A698" s="1">
+        <v>45438</v>
+      </c>
+      <c r="B698" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C698" t="s">
+        <v>6</v>
+      </c>
+      <c r="D698" t="s">
+        <v>9</v>
+      </c>
+      <c r="E698" t="s">
+        <v>10</v>
+      </c>
+      <c r="F698" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A699" s="1">
+        <v>45438</v>
+      </c>
+      <c r="B699" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C699" t="s">
+        <v>11</v>
+      </c>
+      <c r="D699" t="s">
+        <v>9</v>
+      </c>
+      <c r="E699" t="s">
+        <v>10</v>
+      </c>
+      <c r="F699" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A700" s="1">
+        <v>45438</v>
+      </c>
+      <c r="B700" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C700" t="s">
+        <v>6</v>
+      </c>
+      <c r="D700" t="s">
+        <v>12</v>
+      </c>
+      <c r="E700" t="s">
+        <v>8</v>
+      </c>
+      <c r="F700" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A701" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B701" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C701" t="s">
+        <v>11</v>
+      </c>
+      <c r="D701" t="s">
+        <v>9</v>
+      </c>
+      <c r="E701" t="s">
+        <v>10</v>
+      </c>
+      <c r="F701" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A702" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B702" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C702" t="s">
+        <v>6</v>
+      </c>
+      <c r="D702" t="s">
+        <v>9</v>
+      </c>
+      <c r="E702" t="s">
+        <v>10</v>
+      </c>
+      <c r="F702" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A703" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B703" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C703" t="s">
+        <v>11</v>
+      </c>
+      <c r="D703" t="s">
+        <v>9</v>
+      </c>
+      <c r="E703" t="s">
+        <v>10</v>
+      </c>
+      <c r="F703" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A704" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B704" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C704" t="s">
+        <v>6</v>
+      </c>
+      <c r="D704" t="s">
+        <v>12</v>
+      </c>
+      <c r="E704" t="s">
+        <v>8</v>
+      </c>
+      <c r="F704" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A705" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B705" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C705" t="s">
+        <v>6</v>
+      </c>
+      <c r="D705" t="s">
+        <v>9</v>
+      </c>
+      <c r="E705" t="s">
+        <v>10</v>
+      </c>
+      <c r="F705" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A706" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B706" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C706" t="s">
+        <v>11</v>
+      </c>
+      <c r="D706" t="s">
+        <v>9</v>
+      </c>
+      <c r="E706" t="s">
+        <v>10</v>
+      </c>
+      <c r="F706" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A707" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B707" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C707" t="s">
+        <v>6</v>
+      </c>
+      <c r="D707" t="s">
+        <v>12</v>
+      </c>
+      <c r="E707" t="s">
+        <v>8</v>
+      </c>
+      <c r="F707" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A708" s="1">
+        <v>45441</v>
+      </c>
+      <c r="B708" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C708" t="s">
+        <v>11</v>
+      </c>
+      <c r="D708" t="s">
+        <v>9</v>
+      </c>
+      <c r="E708" t="s">
+        <v>10</v>
+      </c>
+      <c r="F708" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A709" s="1">
+        <v>45441</v>
+      </c>
+      <c r="B709" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C709" t="s">
+        <v>6</v>
+      </c>
+      <c r="D709" t="s">
+        <v>12</v>
+      </c>
+      <c r="E709" t="s">
+        <v>8</v>
+      </c>
+      <c r="F709" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A710" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B710" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C710" t="s">
+        <v>6</v>
+      </c>
+      <c r="D710" t="s">
+        <v>9</v>
+      </c>
+      <c r="E710" t="s">
+        <v>10</v>
+      </c>
+      <c r="F710" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A711" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B711" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C711" t="s">
+        <v>11</v>
+      </c>
+      <c r="D711" t="s">
+        <v>9</v>
+      </c>
+      <c r="E711" t="s">
+        <v>10</v>
+      </c>
+      <c r="F711" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A712" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B712" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C712" t="s">
+        <v>6</v>
+      </c>
+      <c r="D712" t="s">
+        <v>12</v>
+      </c>
+      <c r="E712" t="s">
+        <v>8</v>
+      </c>
+      <c r="F712" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A713" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B713" s="2">
+        <v>0.28125</v>
+      </c>
+      <c r="C713" t="s">
+        <v>11</v>
+      </c>
+      <c r="D713" t="s">
+        <v>12</v>
+      </c>
+      <c r="E713" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A714" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B714" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C714" t="s">
+        <v>6</v>
+      </c>
+      <c r="D714" t="s">
+        <v>12</v>
+      </c>
+      <c r="E714" t="s">
+        <v>8</v>
+      </c>
+      <c r="F714" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A715" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B715" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C715" t="s">
+        <v>6</v>
+      </c>
+      <c r="D715" t="s">
+        <v>12</v>
+      </c>
+      <c r="E715" t="s">
+        <v>8</v>
+      </c>
+      <c r="F715" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A716" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B716" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C716" t="s">
+        <v>6</v>
+      </c>
+      <c r="D716" t="s">
+        <v>9</v>
+      </c>
+      <c r="E716" t="s">
+        <v>10</v>
+      </c>
+      <c r="F716" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A717" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B717" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C717" t="s">
+        <v>11</v>
+      </c>
+      <c r="D717" t="s">
+        <v>9</v>
+      </c>
+      <c r="E717" t="s">
+        <v>10</v>
+      </c>
+      <c r="F717" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A718" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B718" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C718" t="s">
+        <v>6</v>
+      </c>
+      <c r="D718" t="s">
+        <v>12</v>
+      </c>
+      <c r="E718" t="s">
+        <v>8</v>
+      </c>
+      <c r="F718" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A719" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B719" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C719" t="s">
+        <v>6</v>
+      </c>
+      <c r="D719" t="s">
+        <v>9</v>
+      </c>
+      <c r="E719" t="s">
+        <v>10</v>
+      </c>
+      <c r="F719" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A720" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B720" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C720" t="s">
+        <v>11</v>
+      </c>
+      <c r="D720" t="s">
+        <v>9</v>
+      </c>
+      <c r="E720" t="s">
+        <v>10</v>
+      </c>
+      <c r="F720" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A721" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B721" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C721" t="s">
+        <v>6</v>
+      </c>
+      <c r="D721" t="s">
+        <v>12</v>
+      </c>
+      <c r="E721" t="s">
+        <v>8</v>
+      </c>
+      <c r="F721" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A722" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B722" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C722" t="s">
+        <v>6</v>
+      </c>
+      <c r="D722" t="s">
+        <v>9</v>
+      </c>
+      <c r="E722" t="s">
+        <v>10</v>
+      </c>
+      <c r="F722" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A723" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B723" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C723" t="s">
+        <v>11</v>
+      </c>
+      <c r="D723" t="s">
+        <v>9</v>
+      </c>
+      <c r="E723" t="s">
+        <v>10</v>
+      </c>
+      <c r="F723" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A724" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B724" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C724" t="s">
+        <v>6</v>
+      </c>
+      <c r="D724" t="s">
+        <v>12</v>
+      </c>
+      <c r="E724" t="s">
+        <v>8</v>
+      </c>
+      <c r="F724" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A725" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B725" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C725" t="s">
+        <v>6</v>
+      </c>
+      <c r="D725" t="s">
+        <v>9</v>
+      </c>
+      <c r="E725" t="s">
+        <v>10</v>
+      </c>
+      <c r="F725" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A726" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B726" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C726" t="s">
+        <v>11</v>
+      </c>
+      <c r="D726" t="s">
+        <v>9</v>
+      </c>
+      <c r="E726" t="s">
+        <v>10</v>
+      </c>
+      <c r="F726" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A727" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B727" s="2">
+        <v>0.28125</v>
+      </c>
+      <c r="C727" t="s">
+        <v>11</v>
+      </c>
+      <c r="D727" t="s">
+        <v>12</v>
+      </c>
+      <c r="E727" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A728" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B728" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C728" t="s">
+        <v>6</v>
+      </c>
+      <c r="D728" t="s">
+        <v>12</v>
+      </c>
+      <c r="E728" t="s">
+        <v>8</v>
+      </c>
+      <c r="F728" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
